--- a/gd/MT/ms布怪.xlsx
+++ b/gd/MT/ms布怪.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/MT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/MT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19800" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="38400" windowHeight="19800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="产出投放规划" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="831">
   <si>
     <r>
       <rPr>
@@ -4800,13 +4800,19 @@
     <t>黑法D (皮影 Shadow Puppet)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
+  <si>
+    <t>红速物D（小丑 Joker）</t>
+  </si>
+  <si>
+    <t>红速法D（大天狗 Tengu）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -5874,13 +5880,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5889,19 +5895,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -6135,6 +6141,23 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6198,26 +6221,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 2 2 2" xfId="4"/>
@@ -6226,17 +6232,7 @@
     <cellStyle name="常规 3 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="7"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14220,67 +14216,67 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="245" t="s">
+      <c r="E2" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="246"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="253"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E3" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="247" t="s">
+      <c r="F3" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="247" t="s">
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="248"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="247" t="s">
+      <c r="J3" s="255"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="249"/>
-      <c r="S3" s="247" t="s">
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="249"/>
-      <c r="U3" s="247" t="s">
+      <c r="T3" s="256"/>
+      <c r="U3" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
     </row>
     <row r="4" spans="1:25" s="184" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
       <c r="E4" s="196" t="s">
         <v>11</v>
       </c>
@@ -17833,7 +17829,7 @@
       <c r="AB12" s="175"/>
       <c r="AG12" s="101"/>
     </row>
-    <row r="13" spans="1:33" s="121" customFormat="1" ht="85" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" s="121" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A13" s="163">
         <v>12</v>
       </c>
@@ -18278,7 +18274,7 @@
       </c>
       <c r="Z20" s="175"/>
     </row>
-    <row r="21" spans="1:33" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" ht="51" x14ac:dyDescent="0.15">
       <c r="A21" s="160">
         <v>20</v>
       </c>
@@ -20945,8 +20941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:O63"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -21014,7 +21010,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="258" t="s">
         <v>419</v>
       </c>
       <c r="B3" s="109" t="s">
@@ -21025,7 +21021,7 @@
       </c>
       <c r="D3" s="58" t="str">
         <f>VLOOKUP(C3,$N$8:$O$62,2,0)</f>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="E3" s="55" t="s">
         <v>420</v>
@@ -21039,7 +21035,7 @@
       </c>
       <c r="H3" s="58" t="str">
         <f>VLOOKUP(G3,$N$8:$O$63,2,0)</f>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>421</v>
@@ -21055,7 +21051,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="251"/>
+      <c r="A4" s="258"/>
       <c r="B4" s="109" t="s">
         <v>170</v>
       </c>
@@ -21064,7 +21060,7 @@
       </c>
       <c r="D4" s="58" t="str">
         <f t="shared" ref="D4" si="0">VLOOKUP(C4,$N$8:$O$62,2,0)</f>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="E4" s="55" t="s">
         <v>303</v>
@@ -21094,7 +21090,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="251"/>
+      <c r="A5" s="258"/>
       <c r="B5" s="109" t="s">
         <v>173</v>
       </c>
@@ -21136,7 +21132,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="251"/>
+      <c r="A6" s="258"/>
       <c r="B6" s="109" t="s">
         <v>178</v>
       </c>
@@ -21145,7 +21141,7 @@
       </c>
       <c r="D6" s="58" t="str">
         <f t="shared" si="3"/>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>194</v>
@@ -21178,7 +21174,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="251"/>
+      <c r="A7" s="258"/>
       <c r="B7" s="109" t="s">
         <v>186</v>
       </c>
@@ -21214,7 +21210,7 @@
       <c r="U7" s="128"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="251"/>
+      <c r="A8" s="258"/>
       <c r="B8" s="109" t="s">
         <v>191</v>
       </c>
@@ -21260,7 +21256,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="251"/>
+      <c r="A9" s="258"/>
       <c r="B9" s="110" t="s">
         <v>433</v>
       </c>
@@ -21302,7 +21298,7 @@
       <c r="U9" s="128"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="252"/>
+      <c r="A10" s="259"/>
       <c r="B10" s="111" t="s">
         <v>437</v>
       </c>
@@ -21346,7 +21342,7 @@
       <c r="U10" s="128"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="258" t="s">
         <v>419</v>
       </c>
       <c r="B11" s="110" t="s">
@@ -21392,7 +21388,7 @@
       <c r="U11" s="128"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="251"/>
+      <c r="A12" s="258"/>
       <c r="B12" s="110" t="s">
         <v>444</v>
       </c>
@@ -21427,7 +21423,7 @@
         <v>369</v>
       </c>
       <c r="O12" s="132" t="s">
-        <v>774</v>
+        <v>829</v>
       </c>
       <c r="P12" s="128"/>
       <c r="Q12" s="128"/>
@@ -21437,7 +21433,7 @@
       <c r="U12" s="128"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="251"/>
+      <c r="A13" s="258"/>
       <c r="B13" s="110" t="s">
         <v>446</v>
       </c>
@@ -21469,7 +21465,7 @@
         <v>448</v>
       </c>
       <c r="O13" s="132" t="s">
-        <v>774</v>
+        <v>829</v>
       </c>
       <c r="P13" s="128"/>
       <c r="Q13" s="128"/>
@@ -21479,7 +21475,7 @@
       <c r="U13" s="128"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="251"/>
+      <c r="A14" s="258"/>
       <c r="B14" s="110" t="s">
         <v>449</v>
       </c>
@@ -21525,7 +21521,7 @@
       <c r="U14" s="128"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="251"/>
+      <c r="A15" s="258"/>
       <c r="B15" s="110" t="s">
         <v>451</v>
       </c>
@@ -21571,7 +21567,7 @@
       <c r="U15" s="128"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="251"/>
+      <c r="A16" s="258"/>
       <c r="B16" s="110" t="s">
         <v>455</v>
       </c>
@@ -21615,7 +21611,7 @@
       <c r="U16" s="128"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="251"/>
+      <c r="A17" s="258"/>
       <c r="B17" s="110" t="s">
         <v>457</v>
       </c>
@@ -21657,7 +21653,7 @@
       <c r="U17" s="128"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="252"/>
+      <c r="A18" s="259"/>
       <c r="B18" s="111" t="s">
         <v>460</v>
       </c>
@@ -21704,7 +21700,7 @@
       <c r="U18" s="128"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="255" t="s">
+      <c r="A19" s="262" t="s">
         <v>465</v>
       </c>
       <c r="B19" s="113" t="s">
@@ -21750,7 +21746,7 @@
       <c r="U19" s="128"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="255"/>
+      <c r="A20" s="262"/>
       <c r="B20" s="113" t="s">
         <v>468</v>
       </c>
@@ -21792,7 +21788,7 @@
       <c r="U20" s="128"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="255"/>
+      <c r="A21" s="262"/>
       <c r="B21" s="113" t="s">
         <v>470</v>
       </c>
@@ -21837,7 +21833,7 @@
       <c r="U21" s="128"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="255"/>
+      <c r="A22" s="262"/>
       <c r="B22" s="113" t="s">
         <v>473</v>
       </c>
@@ -21853,7 +21849,7 @@
       </c>
       <c r="F22" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="G22" s="81" t="s">
         <v>474</v>
@@ -21881,7 +21877,7 @@
       <c r="U22" s="128"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="255"/>
+      <c r="A23" s="262"/>
       <c r="B23" s="113" t="s">
         <v>476</v>
       </c>
@@ -21925,7 +21921,7 @@
       <c r="U23" s="128"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="255"/>
+      <c r="A24" s="262"/>
       <c r="B24" s="113" t="s">
         <v>478</v>
       </c>
@@ -21948,7 +21944,7 @@
       </c>
       <c r="H24" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="K24" s="121"/>
       <c r="L24" s="121"/>
@@ -21969,7 +21965,7 @@
       <c r="U24" s="128"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="255"/>
+      <c r="A25" s="262"/>
       <c r="B25" s="113" t="s">
         <v>479</v>
       </c>
@@ -22013,7 +22009,7 @@
       <c r="U25" s="128"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="255"/>
+      <c r="A26" s="262"/>
       <c r="B26" s="116" t="s">
         <v>481</v>
       </c>
@@ -22057,7 +22053,7 @@
       <c r="U26" s="128"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="250" t="s">
+      <c r="A27" s="257" t="s">
         <v>484</v>
       </c>
       <c r="B27" s="110" t="s">
@@ -22104,7 +22100,7 @@
       <c r="U27" s="128"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="251"/>
+      <c r="A28" s="258"/>
       <c r="B28" s="110" t="s">
         <v>488</v>
       </c>
@@ -22146,7 +22142,7 @@
       <c r="U28" s="128"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="251"/>
+      <c r="A29" s="258"/>
       <c r="B29" s="110" t="s">
         <v>489</v>
       </c>
@@ -22188,7 +22184,7 @@
       <c r="U29" s="128"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="251"/>
+      <c r="A30" s="258"/>
       <c r="B30" s="110" t="s">
         <v>492</v>
       </c>
@@ -22233,7 +22229,7 @@
       <c r="U30" s="128"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="251"/>
+      <c r="A31" s="258"/>
       <c r="B31" s="110" t="s">
         <v>496</v>
       </c>
@@ -22242,7 +22238,7 @@
       </c>
       <c r="D31" s="58" t="str">
         <f t="shared" si="3"/>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="E31" s="88" t="s">
         <v>497</v>
@@ -22275,7 +22271,7 @@
       <c r="U31" s="128"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="251"/>
+      <c r="A32" s="258"/>
       <c r="B32" s="110" t="s">
         <v>498</v>
       </c>
@@ -22291,7 +22287,7 @@
       </c>
       <c r="F32" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="G32" s="59" t="s">
         <v>426</v>
@@ -22319,7 +22315,7 @@
       <c r="U32" s="128"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A33" s="251"/>
+      <c r="A33" s="258"/>
       <c r="B33" s="110" t="s">
         <v>500</v>
       </c>
@@ -22363,7 +22359,7 @@
       <c r="U33" s="128"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A34" s="252"/>
+      <c r="A34" s="259"/>
       <c r="B34" s="111" t="s">
         <v>502</v>
       </c>
@@ -22407,7 +22403,7 @@
       <c r="U34" s="128"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A35" s="250" t="s">
+      <c r="A35" s="257" t="s">
         <v>506</v>
       </c>
       <c r="B35" s="109" t="s">
@@ -22449,7 +22445,7 @@
       <c r="S35" s="128"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A36" s="251"/>
+      <c r="A36" s="258"/>
       <c r="B36" s="109" t="s">
         <v>261</v>
       </c>
@@ -22489,7 +22485,7 @@
       <c r="S36" s="128"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="251"/>
+      <c r="A37" s="258"/>
       <c r="B37" s="109" t="s">
         <v>265</v>
       </c>
@@ -22529,7 +22525,7 @@
       <c r="S37" s="128"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="251"/>
+      <c r="A38" s="258"/>
       <c r="B38" s="109" t="s">
         <v>268</v>
       </c>
@@ -22572,7 +22568,7 @@
       <c r="S38" s="128"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A39" s="251"/>
+      <c r="A39" s="258"/>
       <c r="B39" s="109" t="s">
         <v>274</v>
       </c>
@@ -22612,7 +22608,7 @@
       <c r="S39" s="128"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A40" s="251"/>
+      <c r="A40" s="258"/>
       <c r="B40" s="109" t="s">
         <v>279</v>
       </c>
@@ -22652,7 +22648,7 @@
       <c r="S40" s="128"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A41" s="251"/>
+      <c r="A41" s="258"/>
       <c r="B41" s="109" t="s">
         <v>282</v>
       </c>
@@ -22692,7 +22688,7 @@
       <c r="S41" s="128"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A42" s="252"/>
+      <c r="A42" s="259"/>
       <c r="B42" s="123" t="s">
         <v>286</v>
       </c>
@@ -22708,7 +22704,7 @@
       </c>
       <c r="F42" s="58" t="str">
         <f t="shared" si="10"/>
-        <v>红速物D（大天狗 Tengu）</v>
+        <v>红速法D（大天狗 Tengu）</v>
       </c>
       <c r="G42" s="124" t="s">
         <v>358</v>
@@ -22734,7 +22730,7 @@
       <c r="S42" s="128"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A43" s="250" t="s">
+      <c r="A43" s="257" t="s">
         <v>334</v>
       </c>
       <c r="B43" s="109" t="s">
@@ -22779,7 +22775,7 @@
       <c r="S43" s="128"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A44" s="251"/>
+      <c r="A44" s="258"/>
       <c r="B44" s="109" t="s">
         <v>297</v>
       </c>
@@ -22821,7 +22817,7 @@
       <c r="S44" s="128"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A45" s="251"/>
+      <c r="A45" s="258"/>
       <c r="B45" s="109" t="s">
         <v>301</v>
       </c>
@@ -22830,7 +22826,7 @@
       </c>
       <c r="D45" s="58" t="str">
         <f t="shared" si="9"/>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="E45" s="55" t="s">
         <v>452</v>
@@ -22869,7 +22865,7 @@
       <c r="S45" s="128"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A46" s="251"/>
+      <c r="A46" s="258"/>
       <c r="B46" s="109" t="s">
         <v>305</v>
       </c>
@@ -22911,7 +22907,7 @@
       <c r="S46" s="128"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A47" s="251"/>
+      <c r="A47" s="258"/>
       <c r="B47" s="109" t="s">
         <v>312</v>
       </c>
@@ -22960,7 +22956,7 @@
       <c r="S47" s="128"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A48" s="251"/>
+      <c r="A48" s="258"/>
       <c r="B48" s="109" t="s">
         <v>316</v>
       </c>
@@ -23002,7 +22998,7 @@
       <c r="S48" s="128"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A49" s="251"/>
+      <c r="A49" s="258"/>
       <c r="B49" s="109" t="s">
         <v>320</v>
       </c>
@@ -23046,7 +23042,7 @@
       <c r="S49" s="128"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A50" s="252"/>
+      <c r="A50" s="259"/>
       <c r="B50" s="123" t="s">
         <v>324</v>
       </c>
@@ -23084,7 +23080,7 @@
       <c r="S50" s="128"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A51" s="253" t="s">
+      <c r="A51" s="260" t="s">
         <v>531</v>
       </c>
       <c r="B51" s="110" t="s">
@@ -23124,7 +23120,7 @@
       <c r="S51" s="128"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A52" s="251"/>
+      <c r="A52" s="258"/>
       <c r="B52" s="110" t="s">
         <v>335</v>
       </c>
@@ -23164,7 +23160,7 @@
       <c r="S52" s="128"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A53" s="251"/>
+      <c r="A53" s="258"/>
       <c r="B53" s="110" t="s">
         <v>338</v>
       </c>
@@ -23202,7 +23198,7 @@
       <c r="S53" s="128"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A54" s="251"/>
+      <c r="A54" s="258"/>
       <c r="B54" s="110" t="s">
         <v>341</v>
       </c>
@@ -23235,11 +23231,11 @@
         <v>510</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A55" s="251"/>
+      <c r="A55" s="258"/>
       <c r="B55" s="110" t="s">
         <v>346</v>
       </c>
@@ -23274,7 +23270,7 @@
       <c r="P55" s="121"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A56" s="251"/>
+      <c r="A56" s="258"/>
       <c r="B56" s="110" t="s">
         <v>350</v>
       </c>
@@ -23290,7 +23286,7 @@
       </c>
       <c r="F56" s="58" t="str">
         <f t="shared" si="10"/>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="G56" s="59" t="s">
         <v>487</v>
@@ -23308,7 +23304,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A57" s="251"/>
+      <c r="A57" s="258"/>
       <c r="B57" s="110" t="s">
         <v>353</v>
       </c>
@@ -23342,7 +23338,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A58" s="252"/>
+      <c r="A58" s="259"/>
       <c r="B58" s="111" t="s">
         <v>356</v>
       </c>
@@ -23376,7 +23372,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A59" s="254" t="s">
+      <c r="A59" s="261" t="s">
         <v>542</v>
       </c>
       <c r="B59" s="127" t="s">
@@ -23412,7 +23408,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A60" s="254"/>
+      <c r="A60" s="261"/>
       <c r="B60" s="127" t="s">
         <v>367</v>
       </c>
@@ -23435,7 +23431,7 @@
       </c>
       <c r="H60" s="58" t="str">
         <f t="shared" si="11"/>
-        <v>红速法D（小丑 Joker）</v>
+        <v>红速物D（小丑 Joker）</v>
       </c>
       <c r="M60" s="121"/>
       <c r="N60" s="129" t="s">
@@ -23446,7 +23442,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A61" s="254"/>
+      <c r="A61" s="261"/>
       <c r="B61" s="127" t="s">
         <v>371</v>
       </c>
@@ -23480,7 +23476,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A62" s="254"/>
+      <c r="A62" s="261"/>
       <c r="B62" s="127" t="s">
         <v>375</v>
       </c>
@@ -23517,7 +23513,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A63" s="254"/>
+      <c r="A63" s="261"/>
       <c r="M63" s="121"/>
       <c r="N63" s="129" t="s">
         <v>415</v>
@@ -23527,10 +23523,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A64" s="254"/>
+      <c r="A64" s="261"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A65" s="254"/>
+      <c r="A65" s="261"/>
       <c r="N65" s="1" t="s">
         <v>548</v>
       </c>
@@ -23539,7 +23535,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66" s="254"/>
+      <c r="A66" s="261"/>
       <c r="O66" s="1" t="s">
         <v>550</v>
       </c>
@@ -23689,7 +23685,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="258" t="s">
         <v>419</v>
       </c>
       <c r="B3" s="56" t="s">
@@ -23730,7 +23726,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="251"/>
+      <c r="A4" s="258"/>
       <c r="B4" s="56" t="s">
         <v>569</v>
       </c>
@@ -23769,7 +23765,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A5" s="251"/>
+      <c r="A5" s="258"/>
       <c r="B5" s="56" t="s">
         <v>570</v>
       </c>
@@ -23811,7 +23807,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="251"/>
+      <c r="A6" s="258"/>
       <c r="B6" s="56" t="s">
         <v>571</v>
       </c>
@@ -23853,7 +23849,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="251"/>
+      <c r="A7" s="258"/>
       <c r="B7" s="56" t="s">
         <v>572</v>
       </c>
@@ -23895,7 +23891,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="251"/>
+      <c r="A8" s="258"/>
       <c r="B8" s="56" t="s">
         <v>577</v>
       </c>
@@ -23935,7 +23931,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A9" s="251"/>
+      <c r="A9" s="258"/>
       <c r="B9" s="56" t="s">
         <v>580</v>
       </c>
@@ -23975,7 +23971,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A10" s="252"/>
+      <c r="A10" s="259"/>
       <c r="B10" s="63" t="s">
         <v>582</v>
       </c>
@@ -24015,7 +24011,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="258" t="s">
         <v>419</v>
       </c>
       <c r="B11" s="68" t="s">
@@ -24057,7 +24053,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A12" s="251"/>
+      <c r="A12" s="258"/>
       <c r="B12" s="68" t="s">
         <v>588</v>
       </c>
@@ -24100,7 +24096,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A13" s="251"/>
+      <c r="A13" s="258"/>
       <c r="B13" s="68" t="s">
         <v>591</v>
       </c>
@@ -24140,7 +24136,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A14" s="251"/>
+      <c r="A14" s="258"/>
       <c r="B14" s="68" t="s">
         <v>594</v>
       </c>
@@ -24184,7 +24180,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A15" s="251"/>
+      <c r="A15" s="258"/>
       <c r="B15" s="68" t="s">
         <v>597</v>
       </c>
@@ -24228,7 +24224,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="A16" s="251"/>
+      <c r="A16" s="258"/>
       <c r="B16" s="68" t="s">
         <v>599</v>
       </c>
@@ -24268,7 +24264,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A17" s="251"/>
+      <c r="A17" s="258"/>
       <c r="B17" s="68" t="s">
         <v>601</v>
       </c>
@@ -24308,7 +24304,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="252"/>
+      <c r="A18" s="259"/>
       <c r="B18" s="73" t="s">
         <v>603</v>
       </c>
@@ -24353,7 +24349,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="259" t="s">
+      <c r="A19" s="266" t="s">
         <v>607</v>
       </c>
       <c r="B19" s="75" t="s">
@@ -24397,7 +24393,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="260"/>
+      <c r="A20" s="267"/>
       <c r="B20" s="75" t="s">
         <v>611</v>
       </c>
@@ -24439,7 +24435,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A21" s="260"/>
+      <c r="A21" s="267"/>
       <c r="B21" s="75" t="s">
         <v>616</v>
       </c>
@@ -24484,7 +24480,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A22" s="260"/>
+      <c r="A22" s="267"/>
       <c r="B22" s="75" t="s">
         <v>618</v>
       </c>
@@ -24525,7 +24521,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A23" s="260"/>
+      <c r="A23" s="267"/>
       <c r="B23" s="75" t="s">
         <v>621</v>
       </c>
@@ -24566,7 +24562,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A24" s="260"/>
+      <c r="A24" s="267"/>
       <c r="B24" s="75" t="s">
         <v>623</v>
       </c>
@@ -24607,7 +24603,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A25" s="260"/>
+      <c r="A25" s="267"/>
       <c r="B25" s="75" t="s">
         <v>627</v>
       </c>
@@ -24648,7 +24644,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A26" s="261"/>
+      <c r="A26" s="268"/>
       <c r="B26" s="82" t="s">
         <v>629</v>
       </c>
@@ -24691,7 +24687,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="256" t="s">
+      <c r="A27" s="263" t="s">
         <v>631</v>
       </c>
       <c r="B27" s="68" t="s">
@@ -24737,7 +24733,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A28" s="251"/>
+      <c r="A28" s="258"/>
       <c r="B28" s="68" t="s">
         <v>634</v>
       </c>
@@ -24778,7 +24774,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A29" s="251"/>
+      <c r="A29" s="258"/>
       <c r="B29" s="89" t="s">
         <v>637</v>
       </c>
@@ -24819,7 +24815,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A30" s="251"/>
+      <c r="A30" s="258"/>
       <c r="B30" s="68" t="s">
         <v>639</v>
       </c>
@@ -24862,7 +24858,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A31" s="251"/>
+      <c r="A31" s="258"/>
       <c r="B31" s="68" t="s">
         <v>641</v>
       </c>
@@ -24902,7 +24898,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A32" s="251"/>
+      <c r="A32" s="258"/>
       <c r="B32" s="68" t="s">
         <v>644</v>
       </c>
@@ -24944,7 +24940,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A33" s="251"/>
+      <c r="A33" s="258"/>
       <c r="B33" s="68" t="s">
         <v>647</v>
       </c>
@@ -24986,7 +24982,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A34" s="252"/>
+      <c r="A34" s="259"/>
       <c r="B34" s="73" t="s">
         <v>651</v>
       </c>
@@ -25026,7 +25022,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A35" s="257" t="s">
+      <c r="A35" s="264" t="s">
         <v>655</v>
       </c>
       <c r="B35" s="56" t="s">
@@ -25071,7 +25067,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A36" s="262"/>
+      <c r="A36" s="269"/>
       <c r="B36" s="56" t="s">
         <v>660</v>
       </c>
@@ -25113,7 +25109,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A37" s="262"/>
+      <c r="A37" s="269"/>
       <c r="B37" s="56" t="s">
         <v>663</v>
       </c>
@@ -25156,7 +25152,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A38" s="262"/>
+      <c r="A38" s="269"/>
       <c r="B38" s="56" t="s">
         <v>666</v>
       </c>
@@ -25201,7 +25197,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A39" s="262"/>
+      <c r="A39" s="269"/>
       <c r="B39" s="56" t="s">
         <v>670</v>
       </c>
@@ -25243,7 +25239,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A40" s="262"/>
+      <c r="A40" s="269"/>
       <c r="B40" s="56" t="s">
         <v>674</v>
       </c>
@@ -25285,7 +25281,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A41" s="262"/>
+      <c r="A41" s="269"/>
       <c r="B41" s="56" t="s">
         <v>677</v>
       </c>
@@ -25327,7 +25323,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A42" s="263"/>
+      <c r="A42" s="270"/>
       <c r="B42" s="63" t="s">
         <v>680</v>
       </c>
@@ -25369,7 +25365,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A43" s="256" t="s">
+      <c r="A43" s="263" t="s">
         <v>683</v>
       </c>
       <c r="B43" s="56" t="s">
@@ -25419,7 +25415,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A44" s="251"/>
+      <c r="A44" s="258"/>
       <c r="B44" s="56" t="s">
         <v>687</v>
       </c>
@@ -25459,7 +25455,7 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A45" s="251"/>
+      <c r="A45" s="258"/>
       <c r="B45" s="56" t="s">
         <v>691</v>
       </c>
@@ -25510,7 +25506,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A46" s="251"/>
+      <c r="A46" s="258"/>
       <c r="B46" s="56" t="s">
         <v>695</v>
       </c>
@@ -25555,7 +25551,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A47" s="251"/>
+      <c r="A47" s="258"/>
       <c r="B47" s="56" t="s">
         <v>698</v>
       </c>
@@ -25602,7 +25598,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A48" s="251"/>
+      <c r="A48" s="258"/>
       <c r="B48" s="56" t="s">
         <v>701</v>
       </c>
@@ -25648,7 +25644,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A49" s="251"/>
+      <c r="A49" s="258"/>
       <c r="B49" s="56" t="s">
         <v>704</v>
       </c>
@@ -25696,7 +25692,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A50" s="252"/>
+      <c r="A50" s="259"/>
       <c r="B50" s="63" t="s">
         <v>707</v>
       </c>
@@ -25738,7 +25734,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A51" s="257" t="s">
+      <c r="A51" s="264" t="s">
         <v>710</v>
       </c>
       <c r="B51" s="68" t="s">
@@ -25780,7 +25776,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A52" s="251"/>
+      <c r="A52" s="258"/>
       <c r="B52" s="68" t="s">
         <v>714</v>
       </c>
@@ -25829,7 +25825,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A53" s="251"/>
+      <c r="A53" s="258"/>
       <c r="B53" s="68" t="s">
         <v>717</v>
       </c>
@@ -25871,7 +25867,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A54" s="251"/>
+      <c r="A54" s="258"/>
       <c r="B54" s="68" t="s">
         <v>720</v>
       </c>
@@ -25916,7 +25912,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A55" s="251"/>
+      <c r="A55" s="258"/>
       <c r="B55" s="68" t="s">
         <v>722</v>
       </c>
@@ -25958,7 +25954,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A56" s="251"/>
+      <c r="A56" s="258"/>
       <c r="B56" s="68" t="s">
         <v>724</v>
       </c>
@@ -25994,7 +25990,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A57" s="251"/>
+      <c r="A57" s="258"/>
       <c r="B57" s="68" t="s">
         <v>726</v>
       </c>
@@ -26030,7 +26026,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A58" s="252"/>
+      <c r="A58" s="259"/>
       <c r="B58" s="73" t="s">
         <v>728</v>
       </c>
@@ -26069,7 +26065,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A59" s="257" t="s">
+      <c r="A59" s="264" t="s">
         <v>730</v>
       </c>
       <c r="B59" s="99" t="s">
@@ -26108,7 +26104,7 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A60" s="258"/>
+      <c r="A60" s="265"/>
       <c r="B60" s="99" t="s">
         <v>733</v>
       </c>
@@ -26145,7 +26141,7 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A61" s="258"/>
+      <c r="A61" s="265"/>
       <c r="B61" s="99" t="s">
         <v>735</v>
       </c>
@@ -26183,7 +26179,7 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.15">
-      <c r="A62" s="258"/>
+      <c r="A62" s="265"/>
       <c r="B62" s="99" t="s">
         <v>737</v>
       </c>
@@ -26225,7 +26221,7 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A63" s="258"/>
+      <c r="A63" s="265"/>
       <c r="N63" s="44" t="s">
         <v>415</v>
       </c>
@@ -26237,13 +26233,13 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A64" s="258"/>
+      <c r="A64" s="265"/>
       <c r="N64" s="1" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A65" s="258"/>
+      <c r="A65" s="265"/>
       <c r="O65" s="1" t="s">
         <v>550</v>
       </c>
@@ -26252,7 +26248,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66" s="258"/>
+      <c r="A66" s="265"/>
       <c r="O66" s="1" t="s">
         <v>552</v>
       </c>
@@ -27507,7 +27503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -27517,25 +27513,25 @@
     <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="14.33203125" style="121" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" style="267" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="246" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="160"/>
-      <c r="F1" s="269"/>
+      <c r="F1" s="248"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="248" t="s">
         <v>818</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269" t="s">
+      <c r="C2" s="248"/>
+      <c r="D2" s="248" t="s">
         <v>819</v>
       </c>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269" t="s">
+      <c r="E2" s="248"/>
+      <c r="F2" s="248" t="s">
         <v>821</v>
       </c>
     </row>
@@ -27543,13 +27539,13 @@
       <c r="B3" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="268" t="s">
+      <c r="E3" s="247" t="s">
         <v>772</v>
       </c>
       <c r="F3" s="1" t="str">
@@ -27561,13 +27557,13 @@
       <c r="B4" s="57" t="s">
         <v>422</v>
       </c>
-      <c r="C4" s="270" t="s">
+      <c r="C4" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E4" s="268" t="s">
+      <c r="E4" s="247" t="s">
         <v>772</v>
       </c>
       <c r="F4" s="1" t="e">
@@ -27579,7 +27575,7 @@
       <c r="B5" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="C5" s="270" t="s">
+      <c r="C5" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -27597,7 +27593,7 @@
       <c r="B6" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -27615,7 +27611,7 @@
       <c r="B7" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="270" t="s">
+      <c r="C7" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -27633,7 +27629,7 @@
       <c r="B8" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="270" t="s">
+      <c r="C8" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -27651,7 +27647,7 @@
       <c r="B9" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="270" t="s">
+      <c r="C9" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -27669,7 +27665,7 @@
       <c r="B10" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -27687,7 +27683,7 @@
       <c r="B11" s="60" t="s">
         <v>447</v>
       </c>
-      <c r="C11" s="270" t="s">
+      <c r="C11" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -27705,7 +27701,7 @@
       <c r="B12" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C12" s="270" t="s">
+      <c r="C12" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -27723,7 +27719,7 @@
       <c r="B13" s="120" t="s">
         <v>420</v>
       </c>
-      <c r="C13" s="270" t="s">
+      <c r="C13" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -27741,7 +27737,7 @@
       <c r="B14" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="270" t="s">
+      <c r="C14" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -27759,10 +27755,10 @@
       <c r="B15" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="270" t="s">
+      <c r="C15" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D15" s="266" t="s">
+      <c r="D15" s="245" t="s">
         <v>332</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -27777,7 +27773,7 @@
       <c r="B16" s="120" t="s">
         <v>426</v>
       </c>
-      <c r="C16" s="270" t="s">
+      <c r="C16" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -27795,10 +27791,10 @@
       <c r="B17" s="120" t="s">
         <v>452</v>
       </c>
-      <c r="C17" s="270" t="s">
+      <c r="C17" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D17" s="266" t="s">
+      <c r="D17" s="245" t="s">
         <v>263</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -27813,7 +27809,7 @@
       <c r="B18" s="120" t="s">
         <v>429</v>
       </c>
-      <c r="C18" s="270" t="s">
+      <c r="C18" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -27831,10 +27827,10 @@
       <c r="B19" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="C19" s="270" t="s">
+      <c r="C19" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D19" s="266" t="s">
+      <c r="D19" s="245" t="s">
         <v>194</v>
       </c>
       <c r="E19" s="135" t="s">
@@ -27849,10 +27845,10 @@
       <c r="B20" s="59" t="s">
         <v>441</v>
       </c>
-      <c r="C20" s="270" t="s">
+      <c r="C20" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D20" s="266" t="s">
+      <c r="D20" s="245" t="s">
         <v>480</v>
       </c>
       <c r="E20" s="135" t="s">
@@ -27867,10 +27863,10 @@
       <c r="B21" s="57" t="s">
         <v>503</v>
       </c>
-      <c r="C21" s="270" t="s">
+      <c r="C21" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D21" s="266" t="s">
+      <c r="D21" s="245" t="s">
         <v>189</v>
       </c>
       <c r="E21" s="132" t="s">
@@ -27885,7 +27881,7 @@
       <c r="B22" s="59" t="s">
         <v>458</v>
       </c>
-      <c r="C22" s="270" t="s">
+      <c r="C22" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -27903,10 +27899,10 @@
       <c r="B23" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="270" t="s">
+      <c r="C23" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D23" s="266" t="s">
+      <c r="D23" s="245" t="s">
         <v>175</v>
       </c>
       <c r="E23" s="121" t="s">
@@ -27921,7 +27917,7 @@
       <c r="B24" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="C24" s="270" t="s">
+      <c r="C24" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -27939,10 +27935,10 @@
       <c r="B25" s="59" t="s">
         <v>453</v>
       </c>
-      <c r="C25" s="270" t="s">
+      <c r="C25" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D25" s="266" t="s">
+      <c r="D25" s="245" t="s">
         <v>348</v>
       </c>
       <c r="E25" s="121" t="s">
@@ -27957,10 +27953,10 @@
       <c r="B26" s="59" t="s">
         <v>461</v>
       </c>
-      <c r="C26" s="270" t="s">
+      <c r="C26" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D26" s="266" t="s">
+      <c r="D26" s="245" t="s">
         <v>166</v>
       </c>
       <c r="E26" s="132" t="s">
@@ -27975,7 +27971,7 @@
       <c r="B27" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="C27" s="270" t="s">
+      <c r="C27" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D27" s="132" t="s">
@@ -27993,7 +27989,7 @@
       <c r="B28" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="270" t="s">
+      <c r="C28" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D28" s="132" t="s">
@@ -28011,7 +28007,7 @@
       <c r="B29" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="270" t="s">
+      <c r="C29" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D29" s="132" t="s">
@@ -28029,7 +28025,7 @@
       <c r="B30" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="C30" s="270" t="s">
+      <c r="C30" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D30" s="132" t="s">
@@ -28047,7 +28043,7 @@
       <c r="B31" s="125" t="s">
         <v>486</v>
       </c>
-      <c r="C31" s="270" t="s">
+      <c r="C31" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D31" s="132" t="s">
@@ -28065,7 +28061,7 @@
       <c r="B32" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="C32" s="270" t="s">
+      <c r="C32" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D32" s="132" t="s">
@@ -28083,7 +28079,7 @@
       <c r="B33" s="163" t="s">
         <v>490</v>
       </c>
-      <c r="C33" s="270" t="s">
+      <c r="C33" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D33" s="132" t="s">
@@ -28101,7 +28097,7 @@
       <c r="B34" s="88" t="s">
         <v>497</v>
       </c>
-      <c r="C34" s="270" t="s">
+      <c r="C34" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -28119,7 +28115,7 @@
       <c r="B35" s="55" t="s">
         <v>510</v>
       </c>
-      <c r="C35" s="270" t="s">
+      <c r="C35" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D35" s="132" t="s">
@@ -28134,10 +28130,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="264" t="s">
+      <c r="B36" s="243" t="s">
         <v>415</v>
       </c>
-      <c r="C36" s="270" t="s">
+      <c r="C36" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D36" s="132" t="s">
@@ -28152,10 +28148,10 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="243" t="s">
         <v>438</v>
       </c>
-      <c r="C37" s="270" t="s">
+      <c r="C37" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D37" s="132" t="s">
@@ -28170,10 +28166,10 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="243" t="s">
         <v>462</v>
       </c>
-      <c r="C38" s="270" t="s">
+      <c r="C38" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D38" s="132" t="s">
@@ -28191,7 +28187,7 @@
       <c r="B39" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="C39" s="270" t="s">
+      <c r="C39" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D39" s="132" t="s">
@@ -28209,7 +28205,7 @@
       <c r="B40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="C40" s="270" t="s">
+      <c r="C40" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D40" s="132" t="s">
@@ -28224,10 +28220,10 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="265" t="s">
+      <c r="B41" s="244" t="s">
         <v>358</v>
       </c>
-      <c r="C41" s="270" t="s">
+      <c r="C41" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D41" s="132" t="s">
@@ -28245,7 +28241,7 @@
       <c r="B42" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="C42" s="270" t="s">
+      <c r="C42" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D42" s="132" t="s">
@@ -28260,10 +28256,10 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="265" t="s">
+      <c r="B43" s="244" t="s">
         <v>530</v>
       </c>
-      <c r="C43" s="270" t="s">
+      <c r="C43" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D43" s="132" t="s">
@@ -28281,10 +28277,10 @@
       <c r="B44" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="C44" s="270" t="s">
+      <c r="C44" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D44" s="266" t="s">
+      <c r="D44" s="245" t="s">
         <v>474</v>
       </c>
       <c r="E44" s="121" t="s">
@@ -28299,10 +28295,10 @@
       <c r="B45" s="61" t="s">
         <v>527</v>
       </c>
-      <c r="C45" s="270" t="s">
+      <c r="C45" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D45" s="266" t="s">
+      <c r="D45" s="245" t="s">
         <v>181</v>
       </c>
       <c r="E45" s="121" t="s">
@@ -28317,10 +28313,10 @@
       <c r="B46" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="C46" s="270" t="s">
+      <c r="C46" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D46" s="266" t="s">
+      <c r="D46" s="245" t="s">
         <v>532</v>
       </c>
       <c r="E46" s="121" t="s">
@@ -28335,10 +28331,10 @@
       <c r="B47" s="57" t="s">
         <v>491</v>
       </c>
-      <c r="C47" s="270" t="s">
+      <c r="C47" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D47" s="266" t="s">
+      <c r="D47" s="245" t="s">
         <v>503</v>
       </c>
       <c r="E47" s="121" t="s">
@@ -28350,13 +28346,13 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="264" t="s">
+      <c r="B48" s="243" t="s">
         <v>540</v>
       </c>
-      <c r="C48" s="270" t="s">
+      <c r="C48" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D48" s="266" t="s">
+      <c r="D48" s="245" t="s">
         <v>534</v>
       </c>
       <c r="E48" s="121" t="s">
@@ -28371,10 +28367,10 @@
       <c r="B49" s="59" t="s">
         <v>448</v>
       </c>
-      <c r="C49" s="270" t="s">
+      <c r="C49" s="249" t="s">
         <v>817</v>
       </c>
-      <c r="D49" s="266" t="s">
+      <c r="D49" s="245" t="s">
         <v>510</v>
       </c>
       <c r="E49" s="121" t="s">
@@ -28389,7 +28385,7 @@
       <c r="B50" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="C50" s="270" t="s">
+      <c r="C50" s="249" t="s">
         <v>817</v>
       </c>
       <c r="D50" s="121" t="s">
@@ -28885,7 +28881,7 @@
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="√">
+    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="√">
       <formula>ISERROR(SEARCH("√",F3))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gd/MT/ms布怪.xlsx
+++ b/gd/MT/ms布怪.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/MT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="38400" windowHeight="16440" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="产出投放规划" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
     <sheet name="怪物引用关系" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="873">
   <si>
     <r>
       <rPr>
@@ -2424,7 +2429,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红速法</t>
@@ -2444,7 +2448,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -2464,7 +2467,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -2727,7 +2729,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>绿物</t>
@@ -2747,7 +2748,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（花魄）</t>
@@ -3100,7 +3100,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -3173,7 +3172,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蓝物</t>
@@ -3193,7 +3191,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（温迪戈）雪怪或是汉尼拔</t>
@@ -3213,7 +3210,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>长着鹿脑袋的人</t>
@@ -3342,7 +3338,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蓝</t>
@@ -3362,7 +3357,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（龙宫童子）</t>
@@ -3457,7 +3451,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白主</t>
@@ -3477,7 +3470,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辅驱</t>
@@ -3497,7 +3489,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -3517,7 +3508,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -3556,7 +3546,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红物</t>
@@ -3576,7 +3565,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道成寺钟</t>
@@ -3622,7 +3610,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红</t>
@@ -3642,7 +3629,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>波伊塔塔</t>
@@ -3688,7 +3674,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红</t>
@@ -3708,7 +3693,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红牛</t>
@@ -3757,7 +3741,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -3777,7 +3760,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>嫦娥</t>
@@ -3826,7 +3808,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>绿</t>
@@ -4211,7 +4192,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>绿物</t>
@@ -4231,7 +4211,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>九头蛇柏</t>
@@ -4304,7 +4283,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>绿</t>
@@ -4324,7 +4302,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（森林妖姬</t>
@@ -4344,7 +4321,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -4741,7 +4717,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道成寺钟</t>
@@ -5137,11 +5112,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -7099,7 +7074,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7162,7 +7137,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7414,7 +7389,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7477,7 +7452,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7540,7 +7515,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7666,7 +7641,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7792,7 +7767,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7918,7 +7893,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -10476,7 +10451,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -10541,7 +10516,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -10599,7 +10574,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -10664,7 +10639,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -10727,7 +10702,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -10785,7 +10760,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -10843,7 +10818,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11216,7 +11191,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11274,7 +11249,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11332,7 +11307,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11390,7 +11365,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11448,7 +11423,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11506,7 +11481,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11571,7 +11546,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11636,7 +11611,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11694,7 +11669,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11759,7 +11734,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11824,7 +11799,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11889,7 +11864,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11955,7 +11930,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12020,7 +11995,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12083,7 +12058,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12148,7 +12123,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12207,7 +12182,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12334,7 +12309,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12399,7 +12374,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12465,7 +12440,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12530,7 +12505,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12593,7 +12568,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12658,7 +12633,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12723,7 +12698,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12788,7 +12763,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12853,7 +12828,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12918,7 +12893,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -12981,7 +12956,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13046,7 +13021,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13111,7 +13086,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13177,7 +13152,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13243,7 +13218,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13308,7 +13283,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13373,7 +13348,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13438,7 +13413,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13503,7 +13478,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13568,7 +13543,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13633,7 +13608,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13696,7 +13671,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13760,7 +13735,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13824,7 +13799,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13888,7 +13863,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13944,7 +13919,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14008,7 +13983,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14071,7 +14046,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14134,7 +14109,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14197,7 +14172,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14545,7 +14520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14555,33 +14530,33 @@
       <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="88" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="88" customWidth="1"/>
     <col min="2" max="4" width="13" style="88" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="178" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="178" customWidth="1"/>
     <col min="6" max="6" width="9" style="179"/>
     <col min="7" max="8" width="9" style="1"/>
     <col min="9" max="9" width="9" style="179"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="17.5" style="173" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="179" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="179" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="179"/>
-    <col min="15" max="16" width="16.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="173" customWidth="1"/>
+    <col min="15" max="16" width="16.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="173" customWidth="1"/>
     <col min="19" max="19" width="9" style="180"/>
     <col min="20" max="20" width="18.5" style="173" customWidth="1"/>
     <col min="21" max="21" width="9" style="179"/>
     <col min="22" max="22" width="9" style="147"/>
     <col min="23" max="23" width="9" style="1"/>
     <col min="24" max="24" width="9" style="179"/>
-    <col min="25" max="25" width="19.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B1" s="88" t="s">
         <v>0</v>
       </c>
@@ -14608,7 +14583,7 @@
       <c r="W1" s="216"/>
       <c r="X1" s="147"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -14634,7 +14609,7 @@
       <c r="V2" s="250"/>
       <c r="W2" s="252"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E3" s="182" t="s">
         <v>4</v>
       </c>
@@ -14667,7 +14642,7 @@
       <c r="V3" s="254"/>
       <c r="W3" s="254"/>
     </row>
-    <row r="4" spans="1:25" s="171" customFormat="1" ht="15">
+    <row r="4" spans="1:25" s="171" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="249" t="s">
         <v>10</v>
       </c>
@@ -14726,7 +14701,7 @@
       <c r="W4" s="185"/>
       <c r="X4" s="184"/>
     </row>
-    <row r="5" spans="1:25" s="88" customFormat="1" ht="15">
+    <row r="5" spans="1:25" s="88" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="88" t="s">
         <v>25</v>
       </c>
@@ -14795,7 +14770,7 @@
       </c>
       <c r="X5" s="209"/>
     </row>
-    <row r="6" spans="1:25" s="172" customFormat="1">
+    <row r="6" spans="1:25" s="172" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="188" t="s">
         <v>43</v>
       </c>
@@ -14837,7 +14812,7 @@
       <c r="U6" s="190"/>
       <c r="X6" s="190"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="88" t="s">
         <v>47</v>
       </c>
@@ -14875,7 +14850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="88" t="s">
         <v>50</v>
       </c>
@@ -14904,7 +14879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="88" t="s">
         <v>51</v>
       </c>
@@ -14930,7 +14905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="88" t="s">
         <v>52</v>
       </c>
@@ -14971,7 +14946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="173" customFormat="1" hidden="1">
+    <row r="11" spans="1:25" s="173" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="166" t="s">
         <v>54</v>
       </c>
@@ -15005,7 +14980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="88" t="s">
         <v>57</v>
       </c>
@@ -15049,7 +15024,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="174" customFormat="1">
+    <row r="13" spans="1:25" s="174" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="167" t="s">
         <v>60</v>
       </c>
@@ -15085,7 +15060,7 @@
       <c r="V13" s="219"/>
       <c r="X13" s="192"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="88" t="s">
         <v>62</v>
       </c>
@@ -15126,7 +15101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="167" t="s">
         <v>65</v>
       </c>
@@ -15155,7 +15130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="88" t="s">
         <v>67</v>
       </c>
@@ -15199,7 +15174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="173" customFormat="1" hidden="1">
+    <row r="17" spans="1:25" s="173" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="166" t="s">
         <v>70</v>
       </c>
@@ -15233,7 +15208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="88" t="s">
         <v>73</v>
       </c>
@@ -15271,7 +15246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="175" customFormat="1">
+    <row r="19" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="175" t="s">
         <v>76</v>
       </c>
@@ -15305,7 +15280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="173" customFormat="1" hidden="1">
+    <row r="20" spans="1:25" s="173" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="166" t="s">
         <v>78</v>
       </c>
@@ -15337,7 +15312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="173" customFormat="1" hidden="1">
+    <row r="21" spans="1:25" s="173" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="166" t="s">
         <v>80</v>
       </c>
@@ -15374,7 +15349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="173" customFormat="1" hidden="1">
+    <row r="22" spans="1:25" s="173" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="166" t="s">
         <v>82</v>
       </c>
@@ -15409,7 +15384,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="173" customFormat="1" hidden="1">
+    <row r="23" spans="1:25" s="173" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="166" t="s">
         <v>84</v>
       </c>
@@ -15442,7 +15417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="174" customFormat="1">
+    <row r="24" spans="1:25" s="174" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="167" t="s">
         <v>86</v>
       </c>
@@ -15470,7 +15445,7 @@
       </c>
       <c r="X24" s="192"/>
     </row>
-    <row r="25" spans="1:25" s="176" customFormat="1">
+    <row r="25" spans="1:25" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="196"/>
       <c r="B25" s="196"/>
       <c r="C25" s="196"/>
@@ -15488,7 +15463,7 @@
       <c r="V25" s="222"/>
       <c r="X25" s="198"/>
     </row>
-    <row r="26" spans="1:25" s="177" customFormat="1">
+    <row r="26" spans="1:25" s="177" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="199"/>
       <c r="B26" s="199"/>
       <c r="C26" s="199"/>
@@ -15507,7 +15482,7 @@
       <c r="U26" s="200"/>
       <c r="X26" s="200"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E28" s="178" t="s">
         <v>88</v>
       </c>
@@ -15548,7 +15523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E29" s="178" t="s">
         <v>91</v>
       </c>
@@ -15580,7 +15555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="141" customFormat="1" ht="49.5">
+    <row r="30" spans="1:25" s="141" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A30" s="201"/>
       <c r="B30" s="201"/>
       <c r="C30" s="201"/>
@@ -15629,7 +15604,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="147" customFormat="1" ht="30">
+    <row r="31" spans="1:25" s="147" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="204" t="s">
         <v>95</v>
       </c>
@@ -15642,7 +15617,7 @@
       <c r="S31" s="215"/>
       <c r="T31" s="215"/>
     </row>
-    <row r="32" spans="1:25" s="147" customFormat="1">
+    <row r="32" spans="1:25" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="168" t="s">
         <v>96</v>
       </c>
@@ -15657,7 +15632,7 @@
       <c r="S32" s="215"/>
       <c r="T32" s="215"/>
     </row>
-    <row r="33" spans="2:20" s="147" customFormat="1">
+    <row r="33" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="168"/>
       <c r="C33" s="168"/>
       <c r="D33" s="147" t="s">
@@ -15668,7 +15643,7 @@
       <c r="S33" s="215"/>
       <c r="T33" s="215"/>
     </row>
-    <row r="34" spans="2:20" s="147" customFormat="1">
+    <row r="34" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="168"/>
       <c r="C34" s="168"/>
       <c r="D34" s="147" t="s">
@@ -15679,7 +15654,7 @@
       <c r="S34" s="215"/>
       <c r="T34" s="215"/>
     </row>
-    <row r="35" spans="2:20" s="147" customFormat="1">
+    <row r="35" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="168"/>
       <c r="C35" s="168"/>
       <c r="D35" s="147" t="s">
@@ -15690,7 +15665,7 @@
       <c r="S35" s="215"/>
       <c r="T35" s="215"/>
     </row>
-    <row r="36" spans="2:20" s="147" customFormat="1">
+    <row r="36" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="168"/>
       <c r="C36" s="168"/>
       <c r="K36" s="215"/>
@@ -15698,7 +15673,7 @@
       <c r="S36" s="215"/>
       <c r="T36" s="215"/>
     </row>
-    <row r="37" spans="2:20" s="147" customFormat="1">
+    <row r="37" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="168"/>
       <c r="C37" s="168" t="s">
         <v>102</v>
@@ -15714,7 +15689,7 @@
       <c r="S37" s="215"/>
       <c r="T37" s="215"/>
     </row>
-    <row r="38" spans="2:20" s="147" customFormat="1">
+    <row r="38" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="168"/>
       <c r="C38" s="168"/>
       <c r="D38" s="147" t="s">
@@ -15728,7 +15703,7 @@
       <c r="S38" s="215"/>
       <c r="T38" s="215"/>
     </row>
-    <row r="39" spans="2:20" s="147" customFormat="1">
+    <row r="39" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="168"/>
       <c r="C39" s="168"/>
       <c r="K39" s="215"/>
@@ -15736,7 +15711,7 @@
       <c r="S39" s="215"/>
       <c r="T39" s="215"/>
     </row>
-    <row r="40" spans="2:20" s="147" customFormat="1">
+    <row r="40" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="168"/>
       <c r="C40" s="168" t="s">
         <v>105</v>
@@ -15749,7 +15724,7 @@
       <c r="S40" s="215"/>
       <c r="T40" s="215"/>
     </row>
-    <row r="41" spans="2:20" s="147" customFormat="1">
+    <row r="41" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="168"/>
       <c r="C41" s="168"/>
       <c r="D41" s="147" t="s">
@@ -15760,7 +15735,7 @@
       <c r="S41" s="215"/>
       <c r="T41" s="215"/>
     </row>
-    <row r="42" spans="2:20" s="147" customFormat="1">
+    <row r="42" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="168"/>
       <c r="C42" s="168"/>
       <c r="D42" s="147" t="s">
@@ -15771,7 +15746,7 @@
       <c r="S42" s="215"/>
       <c r="T42" s="215"/>
     </row>
-    <row r="43" spans="2:20" s="147" customFormat="1">
+    <row r="43" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="168"/>
       <c r="C43" s="168"/>
       <c r="D43" s="147" t="s">
@@ -15782,7 +15757,7 @@
       <c r="S43" s="215"/>
       <c r="T43" s="215"/>
     </row>
-    <row r="44" spans="2:20" s="147" customFormat="1">
+    <row r="44" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="168"/>
       <c r="C44" s="168"/>
       <c r="E44" s="147" t="s">
@@ -15793,7 +15768,7 @@
       <c r="S44" s="215"/>
       <c r="T44" s="215"/>
     </row>
-    <row r="45" spans="2:20" s="147" customFormat="1">
+    <row r="45" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="168"/>
       <c r="C45" s="168"/>
       <c r="D45" s="147" t="s">
@@ -15804,7 +15779,7 @@
       <c r="S45" s="215"/>
       <c r="T45" s="215"/>
     </row>
-    <row r="46" spans="2:20" s="147" customFormat="1">
+    <row r="46" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="168"/>
       <c r="C46" s="168"/>
       <c r="D46" s="147" t="s">
@@ -15815,7 +15790,7 @@
       <c r="S46" s="215"/>
       <c r="T46" s="215"/>
     </row>
-    <row r="47" spans="2:20" s="147" customFormat="1">
+    <row r="47" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="168"/>
       <c r="C47" s="168"/>
       <c r="K47" s="215"/>
@@ -15823,7 +15798,7 @@
       <c r="S47" s="215"/>
       <c r="T47" s="215"/>
     </row>
-    <row r="48" spans="2:20" s="147" customFormat="1">
+    <row r="48" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="168"/>
       <c r="C48" s="168" t="s">
         <v>113</v>
@@ -15836,7 +15811,7 @@
       <c r="S48" s="215"/>
       <c r="T48" s="215"/>
     </row>
-    <row r="49" spans="2:20" s="147" customFormat="1">
+    <row r="49" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="168"/>
       <c r="C49" s="168"/>
       <c r="D49" s="147" t="s">
@@ -15847,7 +15822,7 @@
       <c r="S49" s="215"/>
       <c r="T49" s="215"/>
     </row>
-    <row r="50" spans="2:20" s="147" customFormat="1">
+    <row r="50" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="168" t="s">
         <v>116</v>
       </c>
@@ -15860,7 +15835,7 @@
       <c r="S50" s="215"/>
       <c r="T50" s="215"/>
     </row>
-    <row r="51" spans="2:20" s="147" customFormat="1">
+    <row r="51" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="168"/>
       <c r="C51" s="168"/>
       <c r="D51" s="147" t="s">
@@ -15871,7 +15846,7 @@
       <c r="S51" s="215"/>
       <c r="T51" s="215"/>
     </row>
-    <row r="52" spans="2:20" s="147" customFormat="1">
+    <row r="52" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="168" t="s">
         <v>119</v>
       </c>
@@ -15884,7 +15859,7 @@
       <c r="S52" s="215"/>
       <c r="T52" s="215"/>
     </row>
-    <row r="53" spans="2:20" s="147" customFormat="1">
+    <row r="53" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="168" t="s">
         <v>121</v>
       </c>
@@ -15900,7 +15875,7 @@
       <c r="S53" s="215"/>
       <c r="T53" s="215"/>
     </row>
-    <row r="54" spans="2:20" s="147" customFormat="1">
+    <row r="54" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="168" t="s">
         <v>124</v>
       </c>
@@ -15913,7 +15888,7 @@
       <c r="S54" s="215"/>
       <c r="T54" s="215"/>
     </row>
-    <row r="55" spans="2:20" s="147" customFormat="1">
+    <row r="55" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="168" t="s">
         <v>124</v>
       </c>
@@ -15923,7 +15898,7 @@
       <c r="S55" s="215"/>
       <c r="T55" s="215"/>
     </row>
-    <row r="56" spans="2:20" s="147" customFormat="1">
+    <row r="56" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="168" t="s">
         <v>18</v>
       </c>
@@ -15935,7 +15910,7 @@
       <c r="S56" s="215"/>
       <c r="T56" s="215"/>
     </row>
-    <row r="57" spans="2:20" s="147" customFormat="1">
+    <row r="57" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="168"/>
       <c r="C57" s="168"/>
       <c r="K57" s="215"/>
@@ -15943,7 +15918,7 @@
       <c r="S57" s="215"/>
       <c r="T57" s="215"/>
     </row>
-    <row r="58" spans="2:20" s="147" customFormat="1">
+    <row r="58" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="168"/>
       <c r="C58" s="168" t="s">
         <v>127</v>
@@ -15953,7 +15928,7 @@
       <c r="S58" s="215"/>
       <c r="T58" s="215"/>
     </row>
-    <row r="59" spans="2:20" s="147" customFormat="1">
+    <row r="59" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="168"/>
       <c r="C59" s="168"/>
       <c r="K59" s="215"/>
@@ -15961,7 +15936,7 @@
       <c r="S59" s="215"/>
       <c r="T59" s="215"/>
     </row>
-    <row r="60" spans="2:20" s="147" customFormat="1">
+    <row r="60" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="168"/>
       <c r="C60" s="168" t="s">
         <v>128</v>
@@ -15974,7 +15949,7 @@
       <c r="S60" s="215"/>
       <c r="T60" s="215"/>
     </row>
-    <row r="61" spans="2:20" s="147" customFormat="1">
+    <row r="61" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="168"/>
       <c r="C61" s="168"/>
       <c r="D61" s="147" t="s">
@@ -15985,7 +15960,7 @@
       <c r="S61" s="215"/>
       <c r="T61" s="215"/>
     </row>
-    <row r="62" spans="2:20" s="147" customFormat="1">
+    <row r="62" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="168"/>
       <c r="C62" s="168"/>
       <c r="D62" s="147" t="s">
@@ -15996,7 +15971,7 @@
       <c r="S62" s="215"/>
       <c r="T62" s="215"/>
     </row>
-    <row r="63" spans="2:20" s="147" customFormat="1">
+    <row r="63" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="168"/>
       <c r="C63" s="168"/>
       <c r="K63" s="215"/>
@@ -16004,7 +15979,7 @@
       <c r="S63" s="215"/>
       <c r="T63" s="215"/>
     </row>
-    <row r="64" spans="2:20" s="147" customFormat="1">
+    <row r="64" spans="2:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="168"/>
       <c r="C64" s="168" t="s">
         <v>132</v>
@@ -16017,7 +15992,7 @@
       <c r="S64" s="215"/>
       <c r="T64" s="215"/>
     </row>
-    <row r="65" spans="1:20" s="147" customFormat="1">
+    <row r="65" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="168"/>
       <c r="C65" s="168"/>
       <c r="D65" s="147" t="s">
@@ -16028,7 +16003,7 @@
       <c r="S65" s="215"/>
       <c r="T65" s="215"/>
     </row>
-    <row r="66" spans="1:20" s="147" customFormat="1">
+    <row r="66" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="168" t="s">
         <v>116</v>
       </c>
@@ -16038,7 +16013,7 @@
       <c r="S66" s="215"/>
       <c r="T66" s="215"/>
     </row>
-    <row r="67" spans="1:20" s="147" customFormat="1">
+    <row r="67" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="168"/>
       <c r="C67" s="168" t="s">
         <v>135</v>
@@ -16051,7 +16026,7 @@
       <c r="S67" s="215"/>
       <c r="T67" s="215"/>
     </row>
-    <row r="68" spans="1:20" s="147" customFormat="1">
+    <row r="68" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="168"/>
       <c r="C68" s="168"/>
       <c r="D68" s="147" t="s">
@@ -16062,7 +16037,7 @@
       <c r="S68" s="215"/>
       <c r="T68" s="215"/>
     </row>
-    <row r="69" spans="1:20" s="147" customFormat="1">
+    <row r="69" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="168"/>
       <c r="C69" s="168"/>
       <c r="D69" s="147" t="s">
@@ -16073,7 +16048,7 @@
       <c r="S69" s="215"/>
       <c r="T69" s="215"/>
     </row>
-    <row r="70" spans="1:20" s="147" customFormat="1">
+    <row r="70" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="168"/>
       <c r="C70" s="168"/>
       <c r="D70" s="147" t="s">
@@ -16084,7 +16059,7 @@
       <c r="S70" s="215"/>
       <c r="T70" s="215"/>
     </row>
-    <row r="71" spans="1:20" s="147" customFormat="1">
+    <row r="71" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="168"/>
       <c r="B71" s="168"/>
       <c r="C71" s="168"/>
@@ -16095,7 +16070,7 @@
       <c r="S71" s="215"/>
       <c r="T71" s="215"/>
     </row>
-    <row r="72" spans="1:20" s="147" customFormat="1">
+    <row r="72" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="168"/>
       <c r="B72" s="168"/>
       <c r="C72" s="168"/>
@@ -16106,7 +16081,7 @@
       <c r="S72" s="215"/>
       <c r="T72" s="215"/>
     </row>
-    <row r="73" spans="1:20" s="147" customFormat="1">
+    <row r="73" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="168"/>
       <c r="B73" s="168"/>
       <c r="C73" s="168"/>
@@ -16117,7 +16092,7 @@
       <c r="S73" s="215"/>
       <c r="T73" s="215"/>
     </row>
-    <row r="74" spans="1:20" s="147" customFormat="1">
+    <row r="74" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="168"/>
       <c r="B74" s="168"/>
       <c r="C74" s="168"/>
@@ -16128,7 +16103,7 @@
       <c r="S74" s="215"/>
       <c r="T74" s="215"/>
     </row>
-    <row r="75" spans="1:20" s="147" customFormat="1">
+    <row r="75" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="168"/>
       <c r="B75" s="168"/>
       <c r="C75" s="168"/>
@@ -16139,7 +16114,7 @@
       <c r="S75" s="215"/>
       <c r="T75" s="215"/>
     </row>
-    <row r="76" spans="1:20" s="147" customFormat="1">
+    <row r="76" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="168"/>
       <c r="B76" s="168"/>
       <c r="C76" s="168"/>
@@ -16150,7 +16125,7 @@
       <c r="S76" s="215"/>
       <c r="T76" s="215"/>
     </row>
-    <row r="77" spans="1:20" s="147" customFormat="1">
+    <row r="77" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="168"/>
       <c r="B77" s="168"/>
       <c r="C77" s="168"/>
@@ -16161,7 +16136,7 @@
       <c r="S77" s="215"/>
       <c r="T77" s="215"/>
     </row>
-    <row r="78" spans="1:20" s="147" customFormat="1">
+    <row r="78" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="168"/>
       <c r="B78" s="168"/>
       <c r="C78" s="168"/>
@@ -16172,7 +16147,7 @@
       <c r="S78" s="215"/>
       <c r="T78" s="215"/>
     </row>
-    <row r="79" spans="1:20" s="147" customFormat="1">
+    <row r="79" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="168"/>
       <c r="B79" s="168"/>
       <c r="C79" s="168"/>
@@ -16183,7 +16158,7 @@
       <c r="S79" s="215"/>
       <c r="T79" s="215"/>
     </row>
-    <row r="80" spans="1:20" s="147" customFormat="1">
+    <row r="80" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="168"/>
       <c r="B80" s="168"/>
       <c r="C80" s="168"/>
@@ -16194,7 +16169,7 @@
       <c r="S80" s="215"/>
       <c r="T80" s="215"/>
     </row>
-    <row r="81" spans="1:20" s="147" customFormat="1">
+    <row r="81" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="168"/>
       <c r="B81" s="168"/>
       <c r="C81" s="168"/>
@@ -16205,7 +16180,7 @@
       <c r="S81" s="215"/>
       <c r="T81" s="215"/>
     </row>
-    <row r="82" spans="1:20" s="147" customFormat="1">
+    <row r="82" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="168"/>
       <c r="B82" s="168"/>
       <c r="C82" s="168"/>
@@ -16216,7 +16191,7 @@
       <c r="S82" s="215"/>
       <c r="T82" s="215"/>
     </row>
-    <row r="83" spans="1:20" s="147" customFormat="1">
+    <row r="83" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="168"/>
       <c r="B83" s="168"/>
       <c r="C83" s="168"/>
@@ -16227,7 +16202,7 @@
       <c r="S83" s="215"/>
       <c r="T83" s="215"/>
     </row>
-    <row r="84" spans="1:20" s="147" customFormat="1">
+    <row r="84" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="168"/>
       <c r="B84" s="168"/>
       <c r="C84" s="168"/>
@@ -16238,7 +16213,7 @@
       <c r="S84" s="215"/>
       <c r="T84" s="215"/>
     </row>
-    <row r="85" spans="1:20" s="147" customFormat="1">
+    <row r="85" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="168"/>
       <c r="B85" s="168"/>
       <c r="C85" s="168"/>
@@ -16249,7 +16224,7 @@
       <c r="S85" s="215"/>
       <c r="T85" s="215"/>
     </row>
-    <row r="86" spans="1:20" s="147" customFormat="1">
+    <row r="86" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="168"/>
       <c r="B86" s="168"/>
       <c r="C86" s="168"/>
@@ -16260,7 +16235,7 @@
       <c r="S86" s="215"/>
       <c r="T86" s="215"/>
     </row>
-    <row r="87" spans="1:20" s="147" customFormat="1">
+    <row r="87" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="168"/>
       <c r="B87" s="168"/>
       <c r="C87" s="168"/>
@@ -16271,7 +16246,7 @@
       <c r="S87" s="215"/>
       <c r="T87" s="215"/>
     </row>
-    <row r="88" spans="1:20" s="147" customFormat="1">
+    <row r="88" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="168"/>
       <c r="B88" s="168"/>
       <c r="C88" s="168"/>
@@ -16282,7 +16257,7 @@
       <c r="S88" s="215"/>
       <c r="T88" s="215"/>
     </row>
-    <row r="89" spans="1:20" s="147" customFormat="1">
+    <row r="89" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="168"/>
       <c r="B89" s="168"/>
       <c r="C89" s="168"/>
@@ -16293,7 +16268,7 @@
       <c r="S89" s="215"/>
       <c r="T89" s="215"/>
     </row>
-    <row r="90" spans="1:20" s="147" customFormat="1">
+    <row r="90" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="168"/>
       <c r="B90" s="168"/>
       <c r="C90" s="168"/>
@@ -16304,7 +16279,7 @@
       <c r="S90" s="215"/>
       <c r="T90" s="215"/>
     </row>
-    <row r="91" spans="1:20" s="147" customFormat="1">
+    <row r="91" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="168"/>
       <c r="B91" s="168"/>
       <c r="C91" s="168"/>
@@ -16315,7 +16290,7 @@
       <c r="S91" s="215"/>
       <c r="T91" s="215"/>
     </row>
-    <row r="92" spans="1:20" s="147" customFormat="1">
+    <row r="92" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="168"/>
       <c r="B92" s="168"/>
       <c r="C92" s="168"/>
@@ -16326,7 +16301,7 @@
       <c r="S92" s="215"/>
       <c r="T92" s="215"/>
     </row>
-    <row r="93" spans="1:20" s="147" customFormat="1">
+    <row r="93" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="168"/>
       <c r="B93" s="168"/>
       <c r="C93" s="168"/>
@@ -16337,7 +16312,7 @@
       <c r="S93" s="215"/>
       <c r="T93" s="215"/>
     </row>
-    <row r="94" spans="1:20" s="147" customFormat="1">
+    <row r="94" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="168"/>
       <c r="B94" s="168"/>
       <c r="C94" s="168"/>
@@ -16348,7 +16323,7 @@
       <c r="S94" s="215"/>
       <c r="T94" s="215"/>
     </row>
-    <row r="95" spans="1:20" s="147" customFormat="1">
+    <row r="95" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="168"/>
       <c r="B95" s="168"/>
       <c r="C95" s="168"/>
@@ -16359,7 +16334,7 @@
       <c r="S95" s="215"/>
       <c r="T95" s="215"/>
     </row>
-    <row r="96" spans="1:20" s="147" customFormat="1">
+    <row r="96" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="168"/>
       <c r="B96" s="168"/>
       <c r="C96" s="168"/>
@@ -16370,7 +16345,7 @@
       <c r="S96" s="215"/>
       <c r="T96" s="215"/>
     </row>
-    <row r="97" spans="1:20" s="147" customFormat="1">
+    <row r="97" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="168"/>
       <c r="B97" s="168"/>
       <c r="C97" s="168"/>
@@ -16381,7 +16356,7 @@
       <c r="S97" s="215"/>
       <c r="T97" s="215"/>
     </row>
-    <row r="98" spans="1:20" s="147" customFormat="1">
+    <row r="98" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="168"/>
       <c r="B98" s="168"/>
       <c r="C98" s="168"/>
@@ -16392,7 +16367,7 @@
       <c r="S98" s="215"/>
       <c r="T98" s="215"/>
     </row>
-    <row r="99" spans="1:20" s="147" customFormat="1">
+    <row r="99" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="168"/>
       <c r="B99" s="168"/>
       <c r="C99" s="168"/>
@@ -16403,7 +16378,7 @@
       <c r="S99" s="215"/>
       <c r="T99" s="215"/>
     </row>
-    <row r="100" spans="1:20" s="147" customFormat="1">
+    <row r="100" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="168"/>
       <c r="B100" s="168"/>
       <c r="C100" s="168"/>
@@ -16414,7 +16389,7 @@
       <c r="S100" s="215"/>
       <c r="T100" s="215"/>
     </row>
-    <row r="101" spans="1:20" s="147" customFormat="1">
+    <row r="101" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="168"/>
       <c r="B101" s="168"/>
       <c r="C101" s="168"/>
@@ -16425,7 +16400,7 @@
       <c r="S101" s="215"/>
       <c r="T101" s="215"/>
     </row>
-    <row r="102" spans="1:20" s="147" customFormat="1">
+    <row r="102" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="168"/>
       <c r="B102" s="168"/>
       <c r="C102" s="168"/>
@@ -16436,7 +16411,7 @@
       <c r="S102" s="215"/>
       <c r="T102" s="215"/>
     </row>
-    <row r="103" spans="1:20" s="147" customFormat="1">
+    <row r="103" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="168"/>
       <c r="B103" s="168"/>
       <c r="C103" s="168"/>
@@ -16447,7 +16422,7 @@
       <c r="S103" s="215"/>
       <c r="T103" s="215"/>
     </row>
-    <row r="104" spans="1:20" s="147" customFormat="1">
+    <row r="104" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="168"/>
       <c r="B104" s="168"/>
       <c r="C104" s="168"/>
@@ -16458,7 +16433,7 @@
       <c r="S104" s="215"/>
       <c r="T104" s="215"/>
     </row>
-    <row r="105" spans="1:20" s="147" customFormat="1">
+    <row r="105" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="168"/>
       <c r="B105" s="168"/>
       <c r="C105" s="168"/>
@@ -16469,7 +16444,7 @@
       <c r="S105" s="215"/>
       <c r="T105" s="215"/>
     </row>
-    <row r="106" spans="1:20" s="147" customFormat="1">
+    <row r="106" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="168"/>
       <c r="B106" s="168"/>
       <c r="C106" s="168"/>
@@ -16480,7 +16455,7 @@
       <c r="S106" s="215"/>
       <c r="T106" s="215"/>
     </row>
-    <row r="107" spans="1:20" s="147" customFormat="1">
+    <row r="107" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="168"/>
       <c r="B107" s="168"/>
       <c r="C107" s="168"/>
@@ -16491,7 +16466,7 @@
       <c r="S107" s="215"/>
       <c r="T107" s="215"/>
     </row>
-    <row r="108" spans="1:20" s="147" customFormat="1">
+    <row r="108" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="168"/>
       <c r="B108" s="168"/>
       <c r="C108" s="168"/>
@@ -16502,7 +16477,7 @@
       <c r="S108" s="215"/>
       <c r="T108" s="215"/>
     </row>
-    <row r="109" spans="1:20" s="147" customFormat="1">
+    <row r="109" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="168"/>
       <c r="B109" s="168"/>
       <c r="C109" s="168"/>
@@ -16513,7 +16488,7 @@
       <c r="S109" s="215"/>
       <c r="T109" s="215"/>
     </row>
-    <row r="110" spans="1:20" s="147" customFormat="1">
+    <row r="110" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="168"/>
       <c r="B110" s="168"/>
       <c r="C110" s="168"/>
@@ -16524,7 +16499,7 @@
       <c r="S110" s="215"/>
       <c r="T110" s="215"/>
     </row>
-    <row r="111" spans="1:20" s="147" customFormat="1">
+    <row r="111" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="168"/>
       <c r="B111" s="168"/>
       <c r="C111" s="168"/>
@@ -16535,7 +16510,7 @@
       <c r="S111" s="215"/>
       <c r="T111" s="215"/>
     </row>
-    <row r="112" spans="1:20" s="147" customFormat="1">
+    <row r="112" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="168"/>
       <c r="B112" s="168"/>
       <c r="C112" s="168"/>
@@ -16546,7 +16521,7 @@
       <c r="S112" s="215"/>
       <c r="T112" s="215"/>
     </row>
-    <row r="113" spans="1:20" s="147" customFormat="1">
+    <row r="113" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="168"/>
       <c r="B113" s="168"/>
       <c r="C113" s="168"/>
@@ -16557,7 +16532,7 @@
       <c r="S113" s="215"/>
       <c r="T113" s="215"/>
     </row>
-    <row r="114" spans="1:20" s="147" customFormat="1">
+    <row r="114" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="168"/>
       <c r="B114" s="168"/>
       <c r="C114" s="168"/>
@@ -16568,7 +16543,7 @@
       <c r="S114" s="215"/>
       <c r="T114" s="215"/>
     </row>
-    <row r="115" spans="1:20" s="147" customFormat="1">
+    <row r="115" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="168"/>
       <c r="B115" s="168"/>
       <c r="C115" s="168"/>
@@ -16579,7 +16554,7 @@
       <c r="S115" s="215"/>
       <c r="T115" s="215"/>
     </row>
-    <row r="116" spans="1:20" s="147" customFormat="1">
+    <row r="116" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="168"/>
       <c r="B116" s="168"/>
       <c r="C116" s="168"/>
@@ -16590,7 +16565,7 @@
       <c r="S116" s="215"/>
       <c r="T116" s="215"/>
     </row>
-    <row r="117" spans="1:20" s="147" customFormat="1">
+    <row r="117" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="168"/>
       <c r="B117" s="168"/>
       <c r="C117" s="168"/>
@@ -16601,7 +16576,7 @@
       <c r="S117" s="215"/>
       <c r="T117" s="215"/>
     </row>
-    <row r="118" spans="1:20" s="147" customFormat="1">
+    <row r="118" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="168"/>
       <c r="B118" s="168"/>
       <c r="C118" s="168"/>
@@ -16612,7 +16587,7 @@
       <c r="S118" s="215"/>
       <c r="T118" s="215"/>
     </row>
-    <row r="119" spans="1:20" s="147" customFormat="1">
+    <row r="119" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="168"/>
       <c r="B119" s="168"/>
       <c r="C119" s="168"/>
@@ -16623,7 +16598,7 @@
       <c r="S119" s="215"/>
       <c r="T119" s="215"/>
     </row>
-    <row r="120" spans="1:20" s="147" customFormat="1">
+    <row r="120" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="168"/>
       <c r="B120" s="168"/>
       <c r="C120" s="168"/>
@@ -16634,7 +16609,7 @@
       <c r="S120" s="215"/>
       <c r="T120" s="215"/>
     </row>
-    <row r="121" spans="1:20" s="147" customFormat="1">
+    <row r="121" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="168"/>
       <c r="B121" s="168"/>
       <c r="C121" s="168"/>
@@ -16645,7 +16620,7 @@
       <c r="S121" s="215"/>
       <c r="T121" s="215"/>
     </row>
-    <row r="122" spans="1:20" s="147" customFormat="1">
+    <row r="122" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="168"/>
       <c r="B122" s="168"/>
       <c r="C122" s="168"/>
@@ -16656,7 +16631,7 @@
       <c r="S122" s="215"/>
       <c r="T122" s="215"/>
     </row>
-    <row r="123" spans="1:20" s="147" customFormat="1">
+    <row r="123" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="168"/>
       <c r="B123" s="168"/>
       <c r="C123" s="168"/>
@@ -16667,7 +16642,7 @@
       <c r="S123" s="215"/>
       <c r="T123" s="215"/>
     </row>
-    <row r="124" spans="1:20" s="147" customFormat="1">
+    <row r="124" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="168"/>
       <c r="B124" s="168"/>
       <c r="C124" s="168"/>
@@ -16678,7 +16653,7 @@
       <c r="S124" s="215"/>
       <c r="T124" s="215"/>
     </row>
-    <row r="125" spans="1:20" s="147" customFormat="1">
+    <row r="125" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="168"/>
       <c r="B125" s="168"/>
       <c r="C125" s="168"/>
@@ -16689,7 +16664,7 @@
       <c r="S125" s="215"/>
       <c r="T125" s="215"/>
     </row>
-    <row r="126" spans="1:20" s="147" customFormat="1">
+    <row r="126" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="168"/>
       <c r="B126" s="168"/>
       <c r="C126" s="168"/>
@@ -16700,7 +16675,7 @@
       <c r="S126" s="215"/>
       <c r="T126" s="215"/>
     </row>
-    <row r="127" spans="1:20" s="147" customFormat="1">
+    <row r="127" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="168"/>
       <c r="B127" s="168"/>
       <c r="C127" s="168"/>
@@ -16711,7 +16686,7 @@
       <c r="S127" s="215"/>
       <c r="T127" s="215"/>
     </row>
-    <row r="128" spans="1:20" s="147" customFormat="1">
+    <row r="128" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="168"/>
       <c r="B128" s="168"/>
       <c r="C128" s="168"/>
@@ -16722,7 +16697,7 @@
       <c r="S128" s="215"/>
       <c r="T128" s="215"/>
     </row>
-    <row r="129" spans="1:20" s="147" customFormat="1">
+    <row r="129" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="168"/>
       <c r="B129" s="168"/>
       <c r="C129" s="168"/>
@@ -16733,7 +16708,7 @@
       <c r="S129" s="215"/>
       <c r="T129" s="215"/>
     </row>
-    <row r="130" spans="1:20" s="147" customFormat="1">
+    <row r="130" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="168"/>
       <c r="B130" s="168"/>
       <c r="C130" s="168"/>
@@ -16744,7 +16719,7 @@
       <c r="S130" s="215"/>
       <c r="T130" s="215"/>
     </row>
-    <row r="131" spans="1:20" s="147" customFormat="1">
+    <row r="131" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="168"/>
       <c r="B131" s="168"/>
       <c r="C131" s="168"/>
@@ -16755,7 +16730,7 @@
       <c r="S131" s="215"/>
       <c r="T131" s="215"/>
     </row>
-    <row r="132" spans="1:20" s="147" customFormat="1">
+    <row r="132" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="168"/>
       <c r="B132" s="168"/>
       <c r="C132" s="168"/>
@@ -16766,7 +16741,7 @@
       <c r="S132" s="215"/>
       <c r="T132" s="215"/>
     </row>
-    <row r="133" spans="1:20" s="147" customFormat="1">
+    <row r="133" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="168"/>
       <c r="B133" s="168"/>
       <c r="C133" s="168"/>
@@ -16777,7 +16752,7 @@
       <c r="S133" s="215"/>
       <c r="T133" s="215"/>
     </row>
-    <row r="134" spans="1:20" s="147" customFormat="1">
+    <row r="134" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="168"/>
       <c r="B134" s="168"/>
       <c r="C134" s="168"/>
@@ -16788,7 +16763,7 @@
       <c r="S134" s="215"/>
       <c r="T134" s="215"/>
     </row>
-    <row r="135" spans="1:20" s="147" customFormat="1">
+    <row r="135" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="168"/>
       <c r="B135" s="168"/>
       <c r="C135" s="168"/>
@@ -16799,7 +16774,7 @@
       <c r="S135" s="215"/>
       <c r="T135" s="215"/>
     </row>
-    <row r="136" spans="1:20" s="147" customFormat="1">
+    <row r="136" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="168"/>
       <c r="B136" s="168"/>
       <c r="C136" s="168"/>
@@ -16810,7 +16785,7 @@
       <c r="S136" s="215"/>
       <c r="T136" s="215"/>
     </row>
-    <row r="137" spans="1:20" s="147" customFormat="1">
+    <row r="137" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="168"/>
       <c r="B137" s="168"/>
       <c r="C137" s="168"/>
@@ -16821,7 +16796,7 @@
       <c r="S137" s="215"/>
       <c r="T137" s="215"/>
     </row>
-    <row r="138" spans="1:20" s="147" customFormat="1">
+    <row r="138" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="168"/>
       <c r="B138" s="168"/>
       <c r="C138" s="168"/>
@@ -16832,7 +16807,7 @@
       <c r="S138" s="215"/>
       <c r="T138" s="215"/>
     </row>
-    <row r="139" spans="1:20" s="147" customFormat="1">
+    <row r="139" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="168"/>
       <c r="B139" s="168"/>
       <c r="C139" s="168"/>
@@ -16843,7 +16818,7 @@
       <c r="S139" s="215"/>
       <c r="T139" s="215"/>
     </row>
-    <row r="140" spans="1:20" s="147" customFormat="1">
+    <row r="140" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="168"/>
       <c r="B140" s="168"/>
       <c r="C140" s="168"/>
@@ -16854,7 +16829,7 @@
       <c r="S140" s="215"/>
       <c r="T140" s="215"/>
     </row>
-    <row r="141" spans="1:20" s="147" customFormat="1">
+    <row r="141" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="168"/>
       <c r="B141" s="168"/>
       <c r="C141" s="168"/>
@@ -16865,7 +16840,7 @@
       <c r="S141" s="215"/>
       <c r="T141" s="215"/>
     </row>
-    <row r="142" spans="1:20" s="147" customFormat="1">
+    <row r="142" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="168"/>
       <c r="B142" s="168"/>
       <c r="C142" s="168"/>
@@ -16876,7 +16851,7 @@
       <c r="S142" s="215"/>
       <c r="T142" s="215"/>
     </row>
-    <row r="143" spans="1:20" s="147" customFormat="1">
+    <row r="143" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="168"/>
       <c r="B143" s="168"/>
       <c r="C143" s="168"/>
@@ -16887,7 +16862,7 @@
       <c r="S143" s="215"/>
       <c r="T143" s="215"/>
     </row>
-    <row r="144" spans="1:20" s="147" customFormat="1">
+    <row r="144" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="168"/>
       <c r="B144" s="168"/>
       <c r="C144" s="168"/>
@@ -16898,7 +16873,7 @@
       <c r="S144" s="215"/>
       <c r="T144" s="215"/>
     </row>
-    <row r="145" spans="1:20" s="147" customFormat="1">
+    <row r="145" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="168"/>
       <c r="B145" s="168"/>
       <c r="C145" s="168"/>
@@ -16909,7 +16884,7 @@
       <c r="S145" s="215"/>
       <c r="T145" s="215"/>
     </row>
-    <row r="146" spans="1:20" s="147" customFormat="1">
+    <row r="146" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="168"/>
       <c r="B146" s="168"/>
       <c r="C146" s="168"/>
@@ -16920,7 +16895,7 @@
       <c r="S146" s="215"/>
       <c r="T146" s="215"/>
     </row>
-    <row r="147" spans="1:20" s="147" customFormat="1">
+    <row r="147" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="168"/>
       <c r="B147" s="168"/>
       <c r="C147" s="168"/>
@@ -16931,7 +16906,7 @@
       <c r="S147" s="215"/>
       <c r="T147" s="215"/>
     </row>
-    <row r="148" spans="1:20" s="147" customFormat="1">
+    <row r="148" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="168"/>
       <c r="B148" s="168"/>
       <c r="C148" s="168"/>
@@ -16942,7 +16917,7 @@
       <c r="S148" s="215"/>
       <c r="T148" s="215"/>
     </row>
-    <row r="149" spans="1:20" s="147" customFormat="1">
+    <row r="149" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="168"/>
       <c r="B149" s="168"/>
       <c r="C149" s="168"/>
@@ -16953,7 +16928,7 @@
       <c r="S149" s="215"/>
       <c r="T149" s="215"/>
     </row>
-    <row r="150" spans="1:20" s="147" customFormat="1">
+    <row r="150" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="168"/>
       <c r="B150" s="168"/>
       <c r="C150" s="168"/>
@@ -16964,7 +16939,7 @@
       <c r="S150" s="215"/>
       <c r="T150" s="215"/>
     </row>
-    <row r="151" spans="1:20" s="147" customFormat="1">
+    <row r="151" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="168"/>
       <c r="B151" s="168"/>
       <c r="C151" s="168"/>
@@ -16975,7 +16950,7 @@
       <c r="S151" s="215"/>
       <c r="T151" s="215"/>
     </row>
-    <row r="152" spans="1:20" s="147" customFormat="1">
+    <row r="152" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="168"/>
       <c r="B152" s="168"/>
       <c r="C152" s="168"/>
@@ -16986,7 +16961,7 @@
       <c r="S152" s="215"/>
       <c r="T152" s="215"/>
     </row>
-    <row r="153" spans="1:20" s="147" customFormat="1">
+    <row r="153" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="168"/>
       <c r="B153" s="168"/>
       <c r="C153" s="168"/>
@@ -16997,7 +16972,7 @@
       <c r="S153" s="215"/>
       <c r="T153" s="215"/>
     </row>
-    <row r="154" spans="1:20" s="147" customFormat="1">
+    <row r="154" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="168"/>
       <c r="B154" s="168"/>
       <c r="C154" s="168"/>
@@ -17008,7 +16983,7 @@
       <c r="S154" s="215"/>
       <c r="T154" s="215"/>
     </row>
-    <row r="155" spans="1:20" s="147" customFormat="1">
+    <row r="155" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="168"/>
       <c r="B155" s="168"/>
       <c r="C155" s="168"/>
@@ -17019,7 +16994,7 @@
       <c r="S155" s="215"/>
       <c r="T155" s="215"/>
     </row>
-    <row r="156" spans="1:20" s="147" customFormat="1">
+    <row r="156" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="168"/>
       <c r="B156" s="168"/>
       <c r="C156" s="168"/>
@@ -17030,7 +17005,7 @@
       <c r="S156" s="215"/>
       <c r="T156" s="215"/>
     </row>
-    <row r="157" spans="1:20" s="147" customFormat="1">
+    <row r="157" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="168"/>
       <c r="B157" s="168"/>
       <c r="C157" s="168"/>
@@ -17041,7 +17016,7 @@
       <c r="S157" s="215"/>
       <c r="T157" s="215"/>
     </row>
-    <row r="158" spans="1:20" s="147" customFormat="1">
+    <row r="158" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="168"/>
       <c r="B158" s="168"/>
       <c r="C158" s="168"/>
@@ -17052,7 +17027,7 @@
       <c r="S158" s="215"/>
       <c r="T158" s="215"/>
     </row>
-    <row r="159" spans="1:20" s="147" customFormat="1">
+    <row r="159" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="168"/>
       <c r="B159" s="168"/>
       <c r="C159" s="168"/>
@@ -17063,7 +17038,7 @@
       <c r="S159" s="215"/>
       <c r="T159" s="215"/>
     </row>
-    <row r="160" spans="1:20" s="147" customFormat="1">
+    <row r="160" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="168"/>
       <c r="B160" s="168"/>
       <c r="C160" s="168"/>
@@ -17074,7 +17049,7 @@
       <c r="S160" s="215"/>
       <c r="T160" s="215"/>
     </row>
-    <row r="161" spans="1:20" s="147" customFormat="1">
+    <row r="161" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="168"/>
       <c r="B161" s="168"/>
       <c r="C161" s="168"/>
@@ -17085,7 +17060,7 @@
       <c r="S161" s="215"/>
       <c r="T161" s="215"/>
     </row>
-    <row r="162" spans="1:20" s="147" customFormat="1">
+    <row r="162" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="168"/>
       <c r="B162" s="168"/>
       <c r="C162" s="168"/>
@@ -17096,7 +17071,7 @@
       <c r="S162" s="215"/>
       <c r="T162" s="215"/>
     </row>
-    <row r="163" spans="1:20" s="147" customFormat="1">
+    <row r="163" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="168"/>
       <c r="B163" s="168"/>
       <c r="C163" s="168"/>
@@ -17107,7 +17082,7 @@
       <c r="S163" s="215"/>
       <c r="T163" s="215"/>
     </row>
-    <row r="164" spans="1:20" s="147" customFormat="1">
+    <row r="164" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="168"/>
       <c r="B164" s="168"/>
       <c r="C164" s="168"/>
@@ -17118,7 +17093,7 @@
       <c r="S164" s="215"/>
       <c r="T164" s="215"/>
     </row>
-    <row r="165" spans="1:20" s="147" customFormat="1">
+    <row r="165" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="168"/>
       <c r="B165" s="168"/>
       <c r="C165" s="168"/>
@@ -17129,7 +17104,7 @@
       <c r="S165" s="215"/>
       <c r="T165" s="215"/>
     </row>
-    <row r="166" spans="1:20" s="147" customFormat="1">
+    <row r="166" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="168"/>
       <c r="B166" s="168"/>
       <c r="C166" s="168"/>
@@ -17140,7 +17115,7 @@
       <c r="S166" s="215"/>
       <c r="T166" s="215"/>
     </row>
-    <row r="167" spans="1:20" s="147" customFormat="1">
+    <row r="167" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="168"/>
       <c r="B167" s="168"/>
       <c r="C167" s="168"/>
@@ -17151,7 +17126,7 @@
       <c r="S167" s="215"/>
       <c r="T167" s="215"/>
     </row>
-    <row r="168" spans="1:20" s="147" customFormat="1">
+    <row r="168" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="168"/>
       <c r="B168" s="168"/>
       <c r="C168" s="168"/>
@@ -17162,7 +17137,7 @@
       <c r="S168" s="215"/>
       <c r="T168" s="215"/>
     </row>
-    <row r="169" spans="1:20" s="147" customFormat="1">
+    <row r="169" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="168"/>
       <c r="B169" s="168"/>
       <c r="C169" s="168"/>
@@ -17173,7 +17148,7 @@
       <c r="S169" s="215"/>
       <c r="T169" s="215"/>
     </row>
-    <row r="170" spans="1:20" s="147" customFormat="1">
+    <row r="170" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="168"/>
       <c r="B170" s="168"/>
       <c r="C170" s="168"/>
@@ -17184,7 +17159,7 @@
       <c r="S170" s="215"/>
       <c r="T170" s="215"/>
     </row>
-    <row r="171" spans="1:20" s="147" customFormat="1">
+    <row r="171" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="168"/>
       <c r="B171" s="168"/>
       <c r="C171" s="168"/>
@@ -17195,7 +17170,7 @@
       <c r="S171" s="215"/>
       <c r="T171" s="215"/>
     </row>
-    <row r="172" spans="1:20" s="147" customFormat="1">
+    <row r="172" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="168"/>
       <c r="B172" s="168"/>
       <c r="C172" s="168"/>
@@ -17206,7 +17181,7 @@
       <c r="S172" s="215"/>
       <c r="T172" s="215"/>
     </row>
-    <row r="173" spans="1:20" s="147" customFormat="1">
+    <row r="173" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="168"/>
       <c r="B173" s="168"/>
       <c r="C173" s="168"/>
@@ -17217,7 +17192,7 @@
       <c r="S173" s="215"/>
       <c r="T173" s="215"/>
     </row>
-    <row r="174" spans="1:20" s="147" customFormat="1">
+    <row r="174" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="168"/>
       <c r="B174" s="168"/>
       <c r="C174" s="168"/>
@@ -17228,7 +17203,7 @@
       <c r="S174" s="215"/>
       <c r="T174" s="215"/>
     </row>
-    <row r="175" spans="1:20" s="147" customFormat="1">
+    <row r="175" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="168"/>
       <c r="B175" s="168"/>
       <c r="C175" s="168"/>
@@ -17239,7 +17214,7 @@
       <c r="S175" s="215"/>
       <c r="T175" s="215"/>
     </row>
-    <row r="176" spans="1:20" s="147" customFormat="1">
+    <row r="176" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="168"/>
       <c r="B176" s="168"/>
       <c r="C176" s="168"/>
@@ -17250,7 +17225,7 @@
       <c r="S176" s="215"/>
       <c r="T176" s="215"/>
     </row>
-    <row r="177" spans="1:20" s="147" customFormat="1">
+    <row r="177" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="168"/>
       <c r="B177" s="168"/>
       <c r="C177" s="168"/>
@@ -17261,7 +17236,7 @@
       <c r="S177" s="215"/>
       <c r="T177" s="215"/>
     </row>
-    <row r="178" spans="1:20" s="147" customFormat="1">
+    <row r="178" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="168"/>
       <c r="B178" s="168"/>
       <c r="C178" s="168"/>
@@ -17272,7 +17247,7 @@
       <c r="S178" s="215"/>
       <c r="T178" s="215"/>
     </row>
-    <row r="179" spans="1:20" s="147" customFormat="1">
+    <row r="179" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="168"/>
       <c r="B179" s="168"/>
       <c r="C179" s="168"/>
@@ -17283,7 +17258,7 @@
       <c r="S179" s="215"/>
       <c r="T179" s="215"/>
     </row>
-    <row r="180" spans="1:20" s="147" customFormat="1">
+    <row r="180" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="168"/>
       <c r="B180" s="168"/>
       <c r="C180" s="168"/>
@@ -17294,7 +17269,7 @@
       <c r="S180" s="215"/>
       <c r="T180" s="215"/>
     </row>
-    <row r="181" spans="1:20" s="147" customFormat="1">
+    <row r="181" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="168"/>
       <c r="B181" s="168"/>
       <c r="C181" s="168"/>
@@ -17305,7 +17280,7 @@
       <c r="S181" s="215"/>
       <c r="T181" s="215"/>
     </row>
-    <row r="182" spans="1:20" s="147" customFormat="1">
+    <row r="182" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="168"/>
       <c r="B182" s="168"/>
       <c r="C182" s="168"/>
@@ -17316,7 +17291,7 @@
       <c r="S182" s="215"/>
       <c r="T182" s="215"/>
     </row>
-    <row r="183" spans="1:20" s="147" customFormat="1">
+    <row r="183" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="168"/>
       <c r="B183" s="168"/>
       <c r="C183" s="168"/>
@@ -17327,7 +17302,7 @@
       <c r="S183" s="215"/>
       <c r="T183" s="215"/>
     </row>
-    <row r="184" spans="1:20" s="147" customFormat="1">
+    <row r="184" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="168"/>
       <c r="B184" s="168"/>
       <c r="C184" s="168"/>
@@ -17338,7 +17313,7 @@
       <c r="S184" s="215"/>
       <c r="T184" s="215"/>
     </row>
-    <row r="185" spans="1:20" s="147" customFormat="1">
+    <row r="185" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="168"/>
       <c r="B185" s="168"/>
       <c r="C185" s="168"/>
@@ -17349,7 +17324,7 @@
       <c r="S185" s="215"/>
       <c r="T185" s="215"/>
     </row>
-    <row r="186" spans="1:20" s="147" customFormat="1">
+    <row r="186" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="168"/>
       <c r="B186" s="168"/>
       <c r="C186" s="168"/>
@@ -17360,7 +17335,7 @@
       <c r="S186" s="215"/>
       <c r="T186" s="215"/>
     </row>
-    <row r="187" spans="1:20" s="147" customFormat="1">
+    <row r="187" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="168"/>
       <c r="B187" s="168"/>
       <c r="C187" s="168"/>
@@ -17371,7 +17346,7 @@
       <c r="S187" s="215"/>
       <c r="T187" s="215"/>
     </row>
-    <row r="188" spans="1:20" s="147" customFormat="1">
+    <row r="188" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="168"/>
       <c r="B188" s="168"/>
       <c r="C188" s="168"/>
@@ -17382,7 +17357,7 @@
       <c r="S188" s="215"/>
       <c r="T188" s="215"/>
     </row>
-    <row r="189" spans="1:20" s="147" customFormat="1">
+    <row r="189" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="168"/>
       <c r="B189" s="168"/>
       <c r="C189" s="168"/>
@@ -17393,7 +17368,7 @@
       <c r="S189" s="215"/>
       <c r="T189" s="215"/>
     </row>
-    <row r="190" spans="1:20" s="147" customFormat="1">
+    <row r="190" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="168"/>
       <c r="B190" s="168"/>
       <c r="C190" s="168"/>
@@ -17404,7 +17379,7 @@
       <c r="S190" s="215"/>
       <c r="T190" s="215"/>
     </row>
-    <row r="191" spans="1:20" s="147" customFormat="1">
+    <row r="191" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="168"/>
       <c r="B191" s="168"/>
       <c r="C191" s="168"/>
@@ -17415,7 +17390,7 @@
       <c r="S191" s="215"/>
       <c r="T191" s="215"/>
     </row>
-    <row r="192" spans="1:20" s="147" customFormat="1">
+    <row r="192" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="168"/>
       <c r="B192" s="168"/>
       <c r="C192" s="168"/>
@@ -17426,7 +17401,7 @@
       <c r="S192" s="215"/>
       <c r="T192" s="215"/>
     </row>
-    <row r="193" spans="1:20" s="147" customFormat="1">
+    <row r="193" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="168"/>
       <c r="B193" s="168"/>
       <c r="C193" s="168"/>
@@ -17437,7 +17412,7 @@
       <c r="S193" s="215"/>
       <c r="T193" s="215"/>
     </row>
-    <row r="194" spans="1:20" s="147" customFormat="1">
+    <row r="194" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="168"/>
       <c r="B194" s="168"/>
       <c r="C194" s="168"/>
@@ -17448,7 +17423,7 @@
       <c r="S194" s="215"/>
       <c r="T194" s="215"/>
     </row>
-    <row r="195" spans="1:20" s="147" customFormat="1">
+    <row r="195" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="168"/>
       <c r="B195" s="168"/>
       <c r="C195" s="168"/>
@@ -17459,7 +17434,7 @@
       <c r="S195" s="215"/>
       <c r="T195" s="215"/>
     </row>
-    <row r="196" spans="1:20" s="147" customFormat="1">
+    <row r="196" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="168"/>
       <c r="B196" s="168"/>
       <c r="C196" s="168"/>
@@ -17470,7 +17445,7 @@
       <c r="S196" s="215"/>
       <c r="T196" s="215"/>
     </row>
-    <row r="197" spans="1:20" s="147" customFormat="1">
+    <row r="197" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="168"/>
       <c r="B197" s="168"/>
       <c r="C197" s="168"/>
@@ -17481,7 +17456,7 @@
       <c r="S197" s="215"/>
       <c r="T197" s="215"/>
     </row>
-    <row r="198" spans="1:20" s="147" customFormat="1">
+    <row r="198" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="168"/>
       <c r="B198" s="168"/>
       <c r="C198" s="168"/>
@@ -17492,7 +17467,7 @@
       <c r="S198" s="215"/>
       <c r="T198" s="215"/>
     </row>
-    <row r="199" spans="1:20" s="147" customFormat="1">
+    <row r="199" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="168"/>
       <c r="B199" s="168"/>
       <c r="C199" s="168"/>
@@ -17503,7 +17478,7 @@
       <c r="S199" s="215"/>
       <c r="T199" s="215"/>
     </row>
-    <row r="200" spans="1:20" s="147" customFormat="1">
+    <row r="200" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="168"/>
       <c r="B200" s="168"/>
       <c r="C200" s="168"/>
@@ -17514,7 +17489,7 @@
       <c r="S200" s="215"/>
       <c r="T200" s="215"/>
     </row>
-    <row r="201" spans="1:20" s="147" customFormat="1">
+    <row r="201" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="168"/>
       <c r="B201" s="168"/>
       <c r="C201" s="168"/>
@@ -17525,7 +17500,7 @@
       <c r="S201" s="215"/>
       <c r="T201" s="215"/>
     </row>
-    <row r="202" spans="1:20" s="147" customFormat="1">
+    <row r="202" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="168"/>
       <c r="B202" s="168"/>
       <c r="C202" s="168"/>
@@ -17536,7 +17511,7 @@
       <c r="S202" s="215"/>
       <c r="T202" s="215"/>
     </row>
-    <row r="203" spans="1:20" s="147" customFormat="1">
+    <row r="203" spans="1:20" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="168"/>
       <c r="B203" s="168"/>
       <c r="C203" s="168"/>
@@ -17563,7 +17538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG100"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
@@ -17571,34 +17546,34 @@
       <selection pane="bottomLeft" activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="108" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="11" width="9.625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="30.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="108" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="11.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
-    <col min="15" max="16" width="18.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="18.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="29.875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="29.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="37" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="29.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" style="1" customWidth="1"/>
     <col min="28" max="28" width="16.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="29.875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="29.83203125" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45">
+    <row r="1" spans="1:33" ht="51" x14ac:dyDescent="0.15">
       <c r="A1" s="142" t="s">
         <v>140</v>
       </c>
@@ -17681,7 +17656,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="147">
         <v>1</v>
       </c>
@@ -17725,7 +17700,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="147">
         <v>2</v>
       </c>
@@ -17761,7 +17736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="147">
         <v>3</v>
       </c>
@@ -17807,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="147">
         <v>4</v>
       </c>
@@ -17856,7 +17831,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="147">
         <v>5</v>
       </c>
@@ -17916,7 +17891,7 @@
       </c>
       <c r="AG6" s="147"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="147">
         <v>6</v>
       </c>
@@ -17963,7 +17938,7 @@
       </c>
       <c r="AG7" s="168"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="147">
         <v>7</v>
       </c>
@@ -18007,7 +17982,7 @@
       </c>
       <c r="AG8" s="88"/>
     </row>
-    <row r="9" spans="1:33" s="108" customFormat="1" ht="33">
+    <row r="9" spans="1:33" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A9" s="150">
         <v>8</v>
       </c>
@@ -18066,7 +18041,7 @@
       </c>
       <c r="AG9" s="169"/>
     </row>
-    <row r="10" spans="1:33" ht="33">
+    <row r="10" spans="1:33" ht="34" x14ac:dyDescent="0.25">
       <c r="A10" s="147">
         <v>9</v>
       </c>
@@ -18119,7 +18094,7 @@
       </c>
       <c r="AG10" s="88"/>
     </row>
-    <row r="11" spans="1:33" ht="33">
+    <row r="11" spans="1:33" ht="34" x14ac:dyDescent="0.25">
       <c r="A11" s="147">
         <v>10</v>
       </c>
@@ -18177,7 +18152,7 @@
       <c r="Z11" s="162"/>
       <c r="AG11" s="167"/>
     </row>
-    <row r="12" spans="1:33" ht="33">
+    <row r="12" spans="1:33" ht="34" x14ac:dyDescent="0.25">
       <c r="A12" s="147">
         <v>11</v>
       </c>
@@ -18225,7 +18200,7 @@
       <c r="AB12" s="162"/>
       <c r="AG12" s="88"/>
     </row>
-    <row r="13" spans="1:33" s="108" customFormat="1" ht="82.5">
+    <row r="13" spans="1:33" s="108" customFormat="1" ht="85" x14ac:dyDescent="0.15">
       <c r="A13" s="150">
         <v>12</v>
       </c>
@@ -18296,7 +18271,7 @@
       </c>
       <c r="AG13" s="170"/>
     </row>
-    <row r="14" spans="1:33" ht="49.5">
+    <row r="14" spans="1:33" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="147">
         <v>13</v>
       </c>
@@ -18341,7 +18316,7 @@
       <c r="U14" s="162"/>
       <c r="AG14" s="88"/>
     </row>
-    <row r="15" spans="1:33" ht="66">
+    <row r="15" spans="1:33" ht="68" x14ac:dyDescent="0.25">
       <c r="A15" s="147">
         <v>14</v>
       </c>
@@ -18397,7 +18372,7 @@
       <c r="Z15" s="162"/>
       <c r="AG15" s="88"/>
     </row>
-    <row r="16" spans="1:33" ht="33">
+    <row r="16" spans="1:33" ht="34" x14ac:dyDescent="0.25">
       <c r="A16" s="147">
         <v>15</v>
       </c>
@@ -18460,7 +18435,7 @@
       <c r="Z16" s="162"/>
       <c r="AG16" s="88"/>
     </row>
-    <row r="17" spans="1:33" ht="33">
+    <row r="17" spans="1:33" ht="34" x14ac:dyDescent="0.25">
       <c r="A17" s="147">
         <v>16</v>
       </c>
@@ -18510,7 +18485,7 @@
       <c r="U17" s="155"/>
       <c r="AG17" s="88"/>
     </row>
-    <row r="18" spans="1:33" ht="33">
+    <row r="18" spans="1:33" ht="34" x14ac:dyDescent="0.25">
       <c r="A18" s="147">
         <v>17</v>
       </c>
@@ -18566,7 +18541,7 @@
       </c>
       <c r="Z18" s="162"/>
     </row>
-    <row r="19" spans="1:33" ht="33">
+    <row r="19" spans="1:33" ht="34" x14ac:dyDescent="0.25">
       <c r="A19" s="147">
         <v>18</v>
       </c>
@@ -18613,7 +18588,7 @@
       </c>
       <c r="U19" s="155"/>
     </row>
-    <row r="20" spans="1:33" ht="33">
+    <row r="20" spans="1:33" ht="34" x14ac:dyDescent="0.25">
       <c r="A20" s="147">
         <v>19</v>
       </c>
@@ -18670,7 +18645,7 @@
       </c>
       <c r="Z20" s="162"/>
     </row>
-    <row r="21" spans="1:33" ht="33">
+    <row r="21" spans="1:33" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="147">
         <v>20</v>
       </c>
@@ -18734,7 +18709,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="147">
         <v>21</v>
       </c>
@@ -18787,7 +18762,7 @@
       <c r="U22" s="155"/>
       <c r="AE22" s="166"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="147">
         <v>22</v>
       </c>
@@ -18840,7 +18815,7 @@
       <c r="U23" s="155"/>
       <c r="AE23" s="88"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="147">
         <v>23</v>
       </c>
@@ -18903,7 +18878,7 @@
       </c>
       <c r="AE24" s="166"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="147">
         <v>24</v>
       </c>
@@ -18955,7 +18930,7 @@
       <c r="U25" s="159"/>
       <c r="AE25" s="166"/>
     </row>
-    <row r="26" spans="1:33" ht="66">
+    <row r="26" spans="1:33" ht="68" x14ac:dyDescent="0.15">
       <c r="A26" s="147">
         <v>25</v>
       </c>
@@ -19005,7 +18980,7 @@
       </c>
       <c r="AE26" s="166"/>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="147">
         <v>26</v>
       </c>
@@ -19056,7 +19031,7 @@
       </c>
       <c r="AE27" s="166"/>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="147">
         <v>27</v>
       </c>
@@ -19108,7 +19083,7 @@
       </c>
       <c r="AE28" s="167"/>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="147">
         <v>28</v>
       </c>
@@ -19154,7 +19129,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="147">
         <v>29</v>
       </c>
@@ -19216,7 +19191,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="49.5">
+    <row r="31" spans="1:33" ht="51" x14ac:dyDescent="0.15">
       <c r="A31" s="147">
         <v>30</v>
       </c>
@@ -19277,7 +19252,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="147">
         <v>31</v>
       </c>
@@ -19328,7 +19303,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="147">
         <v>32</v>
       </c>
@@ -19379,7 +19354,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="147">
         <v>33</v>
       </c>
@@ -19441,7 +19416,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="33">
+    <row r="35" spans="1:25" ht="34" x14ac:dyDescent="0.15">
       <c r="A35" s="147">
         <v>34</v>
       </c>
@@ -19494,7 +19469,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="147">
         <v>35</v>
       </c>
@@ -19544,7 +19519,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="147">
         <v>36</v>
       </c>
@@ -19594,7 +19569,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="147">
         <v>37</v>
       </c>
@@ -19655,7 +19630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="147">
         <v>38</v>
       </c>
@@ -19708,7 +19683,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="147">
         <v>39</v>
       </c>
@@ -19758,7 +19733,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="147">
         <v>40</v>
       </c>
@@ -19813,7 +19788,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="147">
         <v>41</v>
       </c>
@@ -19874,7 +19849,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" s="147">
         <v>42</v>
       </c>
@@ -19924,7 +19899,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="147">
         <v>43</v>
       </c>
@@ -19974,7 +19949,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="147">
         <v>44</v>
       </c>
@@ -20024,7 +19999,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="147">
         <v>45</v>
       </c>
@@ -20085,7 +20060,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="147">
         <v>46</v>
       </c>
@@ -20138,7 +20113,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="147">
         <v>47</v>
       </c>
@@ -20188,7 +20163,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="147">
         <v>48</v>
       </c>
@@ -20238,7 +20213,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A50" s="147">
         <v>49</v>
       </c>
@@ -20299,7 +20274,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="141" customFormat="1">
+    <row r="51" spans="1:25" s="141" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="153">
         <v>50</v>
       </c>
@@ -20326,7 +20301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A52" s="147">
         <v>51</v>
       </c>
@@ -20340,7 +20315,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A53" s="147">
         <v>52</v>
       </c>
@@ -20354,7 +20329,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="147">
         <v>53</v>
       </c>
@@ -20368,7 +20343,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A55" s="147">
         <v>54</v>
       </c>
@@ -20382,7 +20357,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="147">
         <v>55</v>
       </c>
@@ -20396,7 +20371,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A57" s="147">
         <v>56</v>
       </c>
@@ -20410,7 +20385,7 @@
         <v>4031</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A58" s="147">
         <v>57</v>
       </c>
@@ -20424,7 +20399,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A59" s="147">
         <v>58</v>
       </c>
@@ -20438,7 +20413,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A60" s="147">
         <v>59</v>
       </c>
@@ -20452,7 +20427,7 @@
         <v>5068</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A61" s="147">
         <v>60</v>
       </c>
@@ -20471,7 +20446,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A62" s="147">
         <v>61</v>
       </c>
@@ -20485,7 +20460,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A63" s="147">
         <v>62</v>
       </c>
@@ -20499,7 +20474,7 @@
         <v>6218</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A64" s="147">
         <v>63</v>
       </c>
@@ -20513,7 +20488,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="147">
         <v>64</v>
       </c>
@@ -20527,7 +20502,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="147">
         <v>65</v>
       </c>
@@ -20541,7 +20516,7 @@
         <v>7492</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="147">
         <v>66</v>
       </c>
@@ -20555,7 +20530,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="147">
         <v>67</v>
       </c>
@@ -20569,7 +20544,7 @@
         <v>8438</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="147">
         <v>68</v>
       </c>
@@ -20583,7 +20558,7 @@
         <v>8937</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="147">
         <v>69</v>
       </c>
@@ -20597,7 +20572,7 @@
         <v>9451</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="147">
         <v>70</v>
       </c>
@@ -20616,7 +20591,7 @@
         <v>9978</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="147">
         <v>71</v>
       </c>
@@ -20630,7 +20605,7 @@
         <v>10525</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="147">
         <v>72</v>
       </c>
@@ -20644,7 +20619,7 @@
         <v>11093</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="147">
         <v>73</v>
       </c>
@@ -20658,7 +20633,7 @@
         <v>11690</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="147">
         <v>74</v>
       </c>
@@ -20672,7 +20647,7 @@
         <v>12324</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="147">
         <v>75</v>
       </c>
@@ -20686,7 +20661,7 @@
         <v>12998</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="147">
         <v>76</v>
       </c>
@@ -20700,7 +20675,7 @@
         <v>13718</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="147">
         <v>77</v>
       </c>
@@ -20714,7 +20689,7 @@
         <v>14477</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="147">
         <v>78</v>
       </c>
@@ -20728,7 +20703,7 @@
         <v>15271</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="147">
         <v>79</v>
       </c>
@@ -20742,7 +20717,7 @@
         <v>16100</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="147">
         <v>80</v>
       </c>
@@ -20761,7 +20736,7 @@
         <v>16955</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="147">
         <v>81</v>
       </c>
@@ -20775,7 +20750,7 @@
         <v>17842</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="147">
         <v>82</v>
       </c>
@@ -20789,7 +20764,7 @@
         <v>18763</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="147">
         <v>83</v>
       </c>
@@ -20803,7 +20778,7 @@
         <v>19721</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="147">
         <v>84</v>
       </c>
@@ -20817,7 +20792,7 @@
         <v>20717</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="147">
         <v>85</v>
       </c>
@@ -20831,7 +20806,7 @@
         <v>21757</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="147">
         <v>86</v>
       </c>
@@ -20845,7 +20820,7 @@
         <v>22836</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="147">
         <v>87</v>
       </c>
@@ -20859,7 +20834,7 @@
         <v>23951</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="147">
         <v>88</v>
       </c>
@@ -20873,7 +20848,7 @@
         <v>25098</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="147">
         <v>89</v>
       </c>
@@ -20887,7 +20862,7 @@
         <v>26274</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="147">
         <v>90</v>
       </c>
@@ -20906,7 +20881,7 @@
         <v>27475</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="147">
         <v>91</v>
       </c>
@@ -20920,7 +20895,7 @@
         <v>28720</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="147">
         <v>92</v>
       </c>
@@ -20934,7 +20909,7 @@
         <v>30010</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="147">
         <v>93</v>
       </c>
@@ -20948,7 +20923,7 @@
         <v>31352</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="147">
         <v>94</v>
       </c>
@@ -20962,7 +20937,7 @@
         <v>32752</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="147">
         <v>95</v>
       </c>
@@ -20976,7 +20951,7 @@
         <v>34217</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="147">
         <v>96</v>
       </c>
@@ -20990,7 +20965,7 @@
         <v>35747</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="147">
         <v>97</v>
       </c>
@@ -21004,7 +20979,7 @@
         <v>37335</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="147">
         <v>98</v>
       </c>
@@ -21018,7 +20993,7 @@
         <v>38976</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="147">
         <v>99</v>
       </c>
@@ -21044,66 +21019,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W51:Y58"/>
   <sheetViews>
     <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="51" spans="23:25">
+    <row r="51" spans="23:25" x14ac:dyDescent="0.15">
       <c r="W51" s="131"/>
       <c r="X51" s="132" t="s">
         <v>380</v>
       </c>
       <c r="Y51" s="138"/>
     </row>
-    <row r="52" spans="23:25">
+    <row r="52" spans="23:25" x14ac:dyDescent="0.15">
       <c r="W52" s="133"/>
       <c r="X52" s="134"/>
       <c r="Y52" s="139"/>
     </row>
-    <row r="53" spans="23:25">
+    <row r="53" spans="23:25" x14ac:dyDescent="0.15">
       <c r="W53" s="135" t="s">
         <v>381</v>
       </c>
       <c r="X53" s="134"/>
       <c r="Y53" s="139"/>
     </row>
-    <row r="54" spans="23:25">
+    <row r="54" spans="23:25" x14ac:dyDescent="0.15">
       <c r="W54" s="135" t="s">
         <v>382</v>
       </c>
       <c r="X54" s="134"/>
       <c r="Y54" s="139"/>
     </row>
-    <row r="55" spans="23:25">
+    <row r="55" spans="23:25" x14ac:dyDescent="0.15">
       <c r="W55" s="135" t="s">
         <v>383</v>
       </c>
       <c r="X55" s="134"/>
       <c r="Y55" s="139"/>
     </row>
-    <row r="56" spans="23:25">
+    <row r="56" spans="23:25" x14ac:dyDescent="0.15">
       <c r="W56" s="135" t="s">
         <v>384</v>
       </c>
       <c r="X56" s="134"/>
       <c r="Y56" s="139"/>
     </row>
-    <row r="57" spans="23:25">
+    <row r="57" spans="23:25" x14ac:dyDescent="0.15">
       <c r="W57" s="135" t="s">
         <v>385</v>
       </c>
       <c r="X57" s="134"/>
       <c r="Y57" s="139"/>
     </row>
-    <row r="58" spans="23:25">
+    <row r="58" spans="23:25" x14ac:dyDescent="0.15">
       <c r="W58" s="136"/>
       <c r="X58" s="137"/>
       <c r="Y58" s="140"/>
@@ -21116,30 +21091,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="F2" s="128" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="F3" s="129" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>388</v>
       </c>
@@ -21147,7 +21122,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>390</v>
       </c>
@@ -21155,7 +21130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>391</v>
       </c>
@@ -21163,7 +21138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>392</v>
       </c>
@@ -21171,7 +21146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>393</v>
       </c>
@@ -21179,7 +21154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5">
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>394</v>
       </c>
@@ -21187,7 +21162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5">
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>395</v>
       </c>
@@ -21201,7 +21176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>397</v>
       </c>
@@ -21215,7 +21190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5">
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>399</v>
       </c>
@@ -21229,12 +21204,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5">
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5">
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>402</v>
       </c>
@@ -21242,7 +21217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>403</v>
       </c>
@@ -21250,7 +21225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>404</v>
       </c>
@@ -21258,7 +21233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>405</v>
       </c>
@@ -21266,7 +21241,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>406</v>
       </c>
@@ -21274,12 +21249,12 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>408</v>
       </c>
@@ -21287,7 +21262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>409</v>
       </c>
@@ -21295,7 +21270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>403</v>
       </c>
@@ -21303,7 +21278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>404</v>
       </c>
@@ -21311,7 +21286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>405</v>
       </c>
@@ -21319,7 +21294,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>406</v>
       </c>
@@ -21334,31 +21309,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="23" customWidth="1"/>
     <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="6" width="36.625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="23" customWidth="1"/>
     <col min="8" max="8" width="34" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.33203125" style="1" customWidth="1"/>
+    <col min="16" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="16.83203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="47"/>
       <c r="B1" s="48"/>
       <c r="C1" s="51" t="s">
@@ -21380,7 +21357,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B2" s="48" t="s">
         <v>414</v>
       </c>
@@ -21405,7 +21382,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="257" t="s">
         <v>419</v>
       </c>
@@ -21446,7 +21423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="257"/>
       <c r="B4" s="96" t="s">
         <v>170</v>
@@ -21485,7 +21462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="257"/>
       <c r="B5" s="96" t="s">
         <v>173</v>
@@ -21527,7 +21504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="257"/>
       <c r="B6" s="96" t="s">
         <v>178</v>
@@ -21569,7 +21546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="257"/>
       <c r="B7" s="96" t="s">
         <v>186</v>
@@ -21605,7 +21582,7 @@
       <c r="T7" s="115"/>
       <c r="U7" s="115"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="257"/>
       <c r="B8" s="96" t="s">
         <v>191</v>
@@ -21646,12 +21623,8 @@
       <c r="S8" s="115"/>
       <c r="T8" s="115"/>
       <c r="U8" s="115"/>
-      <c r="V8" s="1" t="e">
-        <f>VLOOKUP(N8,$A:$H,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="257"/>
       <c r="B9" s="97" t="s">
         <v>433</v>
@@ -21693,7 +21666,7 @@
       <c r="T9" s="115"/>
       <c r="U9" s="115"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="258"/>
       <c r="B10" s="98" t="s">
         <v>437</v>
@@ -21738,7 +21711,7 @@
       <c r="T10" s="115"/>
       <c r="U10" s="115"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="257" t="s">
         <v>419</v>
       </c>
@@ -21785,7 +21758,7 @@
       <c r="T11" s="115"/>
       <c r="U11" s="115"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="257"/>
       <c r="B12" s="97" t="s">
         <v>444</v>
@@ -21831,7 +21804,7 @@
       <c r="T12" s="115"/>
       <c r="U12" s="115"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="257"/>
       <c r="B13" s="97" t="s">
         <v>446</v>
@@ -21873,7 +21846,7 @@
       <c r="T13" s="115"/>
       <c r="U13" s="115"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="257"/>
       <c r="B14" s="97" t="s">
         <v>449</v>
@@ -21919,7 +21892,7 @@
       </c>
       <c r="U14" s="115"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="257"/>
       <c r="B15" s="97" t="s">
         <v>451</v>
@@ -21965,7 +21938,7 @@
       </c>
       <c r="U15" s="115"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="257"/>
       <c r="B16" s="97" t="s">
         <v>455</v>
@@ -22009,7 +21982,7 @@
       <c r="T16" s="115"/>
       <c r="U16" s="115"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="257"/>
       <c r="B17" s="97" t="s">
         <v>457</v>
@@ -22051,7 +22024,7 @@
       <c r="T17" s="115"/>
       <c r="U17" s="115"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="258"/>
       <c r="B18" s="98" t="s">
         <v>460</v>
@@ -22098,7 +22071,7 @@
       <c r="T18" s="115"/>
       <c r="U18" s="115"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="261" t="s">
         <v>465</v>
       </c>
@@ -22144,7 +22117,7 @@
       <c r="T19" s="115"/>
       <c r="U19" s="115"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="261"/>
       <c r="B20" s="100" t="s">
         <v>468</v>
@@ -22186,7 +22159,7 @@
       <c r="T20" s="115"/>
       <c r="U20" s="115"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="261"/>
       <c r="B21" s="100" t="s">
         <v>470</v>
@@ -22231,7 +22204,7 @@
       <c r="T21" s="115"/>
       <c r="U21" s="115"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="261"/>
       <c r="B22" s="100" t="s">
         <v>473</v>
@@ -22275,7 +22248,7 @@
       <c r="T22" s="115"/>
       <c r="U22" s="115"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="261"/>
       <c r="B23" s="100" t="s">
         <v>476</v>
@@ -22319,7 +22292,7 @@
       <c r="T23" s="115"/>
       <c r="U23" s="115"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="261"/>
       <c r="B24" s="100" t="s">
         <v>478</v>
@@ -22363,7 +22336,7 @@
       <c r="T24" s="115"/>
       <c r="U24" s="115"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="261"/>
       <c r="B25" s="100" t="s">
         <v>479</v>
@@ -22407,7 +22380,7 @@
       <c r="T25" s="115"/>
       <c r="U25" s="115"/>
     </row>
-    <row r="26" spans="1:21" ht="17.25" thickBot="1">
+    <row r="26" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="261"/>
       <c r="B26" s="103" t="s">
         <v>481</v>
@@ -22451,7 +22424,7 @@
       <c r="T26" s="115"/>
       <c r="U26" s="115"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="256" t="s">
         <v>484</v>
       </c>
@@ -22498,7 +22471,7 @@
       <c r="T27" s="115"/>
       <c r="U27" s="115"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="257"/>
       <c r="B28" s="97" t="s">
         <v>488</v>
@@ -22540,7 +22513,7 @@
       <c r="T28" s="115"/>
       <c r="U28" s="115"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="257"/>
       <c r="B29" s="97" t="s">
         <v>489</v>
@@ -22582,7 +22555,7 @@
       <c r="T29" s="115"/>
       <c r="U29" s="115"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="257"/>
       <c r="B30" s="97" t="s">
         <v>492</v>
@@ -22627,7 +22600,7 @@
       <c r="T30" s="115"/>
       <c r="U30" s="115"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="257"/>
       <c r="B31" s="97" t="s">
         <v>496</v>
@@ -22669,7 +22642,7 @@
       <c r="T31" s="115"/>
       <c r="U31" s="115"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="257"/>
       <c r="B32" s="97" t="s">
         <v>498</v>
@@ -22713,7 +22686,7 @@
       <c r="T32" s="115"/>
       <c r="U32" s="115"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="257"/>
       <c r="B33" s="97" t="s">
         <v>500</v>
@@ -22757,7 +22730,7 @@
       <c r="T33" s="115"/>
       <c r="U33" s="115"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="258"/>
       <c r="B34" s="98" t="s">
         <v>502</v>
@@ -22801,7 +22774,7 @@
       <c r="T34" s="115"/>
       <c r="U34" s="115"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="256" t="s">
         <v>506</v>
       </c>
@@ -22843,7 +22816,7 @@
       <c r="R35" s="115"/>
       <c r="S35" s="115"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="257"/>
       <c r="B36" s="96" t="s">
         <v>261</v>
@@ -22883,7 +22856,7 @@
       <c r="R36" s="115"/>
       <c r="S36" s="115"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="257"/>
       <c r="B37" s="96" t="s">
         <v>265</v>
@@ -22923,7 +22896,7 @@
       <c r="R37" s="115"/>
       <c r="S37" s="115"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="257"/>
       <c r="B38" s="96" t="s">
         <v>268</v>
@@ -22966,7 +22939,7 @@
       <c r="R38" s="115"/>
       <c r="S38" s="115"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="257"/>
       <c r="B39" s="96" t="s">
         <v>274</v>
@@ -23006,7 +22979,7 @@
       <c r="R39" s="115"/>
       <c r="S39" s="115"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="257"/>
       <c r="B40" s="96" t="s">
         <v>279</v>
@@ -23046,7 +23019,7 @@
       <c r="R40" s="115"/>
       <c r="S40" s="115"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="257"/>
       <c r="B41" s="96" t="s">
         <v>282</v>
@@ -23086,7 +23059,7 @@
       <c r="R41" s="115"/>
       <c r="S41" s="115"/>
     </row>
-    <row r="42" spans="1:21" ht="17.25" thickBot="1">
+    <row r="42" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="258"/>
       <c r="B42" s="110" t="s">
         <v>286</v>
@@ -23128,7 +23101,7 @@
       <c r="R42" s="115"/>
       <c r="S42" s="115"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43" s="256" t="s">
         <v>334</v>
       </c>
@@ -23173,7 +23146,7 @@
       <c r="R43" s="115"/>
       <c r="S43" s="115"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="257"/>
       <c r="B44" s="96" t="s">
         <v>297</v>
@@ -23215,7 +23188,7 @@
       <c r="R44" s="115"/>
       <c r="S44" s="115"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="257"/>
       <c r="B45" s="96" t="s">
         <v>301</v>
@@ -23263,7 +23236,7 @@
       <c r="R45" s="115"/>
       <c r="S45" s="115"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="257"/>
       <c r="B46" s="96" t="s">
         <v>305</v>
@@ -23305,7 +23278,7 @@
       <c r="R46" s="115"/>
       <c r="S46" s="115"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47" s="257"/>
       <c r="B47" s="96" t="s">
         <v>312</v>
@@ -23354,7 +23327,7 @@
       </c>
       <c r="S47" s="115"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48" s="257"/>
       <c r="B48" s="96" t="s">
         <v>316</v>
@@ -23396,7 +23369,7 @@
       <c r="R48" s="115"/>
       <c r="S48" s="115"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49" s="257"/>
       <c r="B49" s="96" t="s">
         <v>320</v>
@@ -23440,7 +23413,7 @@
       <c r="R49" s="115"/>
       <c r="S49" s="115"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50" s="258"/>
       <c r="B50" s="110" t="s">
         <v>324</v>
@@ -23478,7 +23451,7 @@
       <c r="R50" s="115"/>
       <c r="S50" s="115"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51" s="259" t="s">
         <v>531</v>
       </c>
@@ -23518,7 +23491,7 @@
       <c r="R51" s="115"/>
       <c r="S51" s="115"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52" s="257"/>
       <c r="B52" s="97" t="s">
         <v>335</v>
@@ -23558,7 +23531,7 @@
       <c r="R52" s="115"/>
       <c r="S52" s="115"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53" s="257"/>
       <c r="B53" s="97" t="s">
         <v>338</v>
@@ -23596,7 +23569,7 @@
       <c r="R53" s="115"/>
       <c r="S53" s="115"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54" s="257"/>
       <c r="B54" s="97" t="s">
         <v>341</v>
@@ -23633,7 +23606,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55" s="257"/>
       <c r="B55" s="97" t="s">
         <v>346</v>
@@ -23668,7 +23641,7 @@
       </c>
       <c r="P55" s="108"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56" s="257"/>
       <c r="B56" s="97" t="s">
         <v>350</v>
@@ -23702,7 +23675,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" s="257"/>
       <c r="B57" s="97" t="s">
         <v>353</v>
@@ -23736,7 +23709,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58" s="258"/>
       <c r="B58" s="98" t="s">
         <v>356</v>
@@ -23770,7 +23743,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59" s="260" t="s">
         <v>542</v>
       </c>
@@ -23806,7 +23779,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60" s="260"/>
       <c r="B60" s="114" t="s">
         <v>367</v>
@@ -23840,7 +23813,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61" s="260"/>
       <c r="B61" s="114" t="s">
         <v>371</v>
@@ -23874,7 +23847,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" s="260"/>
       <c r="B62" s="114" t="s">
         <v>375</v>
@@ -23911,7 +23884,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63" s="260"/>
       <c r="M63" s="108"/>
       <c r="N63" s="116" t="s">
@@ -23921,28 +23894,28 @@
         <v>547</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64" s="260"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="260"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="260"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="237"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="237"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="237"/>
       <c r="N69" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="237" t="s">
         <v>842</v>
       </c>
@@ -23962,7 +23935,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B71" s="23" t="s">
         <v>425</v>
       </c>
@@ -23997,7 +23970,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B72" s="23" t="s">
         <v>423</v>
       </c>
@@ -24029,7 +24002,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B73" s="23" t="s">
         <v>421</v>
       </c>
@@ -24064,7 +24037,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O74" s="1" t="s">
         <v>557</v>
       </c>
@@ -24072,7 +24045,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B75" s="1"/>
       <c r="C75" s="88" t="s">
         <v>835</v>
@@ -24087,7 +24060,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B76" s="23" t="s">
         <v>425</v>
       </c>
@@ -24107,7 +24080,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B77" s="23" t="s">
         <v>423</v>
       </c>
@@ -24121,7 +24094,7 @@
       </c>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B78" s="23" t="s">
         <v>421</v>
       </c>
@@ -24137,7 +24110,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B79" s="1"/>
       <c r="C79" s="240" t="s">
         <v>841</v>
@@ -24162,37 +24135,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="36.625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="23" customWidth="1"/>
     <col min="8" max="8" width="37" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="32.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="47"/>
       <c r="B1" s="48"/>
       <c r="C1" s="49" t="s">
@@ -24214,7 +24187,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="B2" s="52" t="s">
         <v>565</v>
       </c>
@@ -24236,7 +24209,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="257" t="s">
         <v>419</v>
       </c>
@@ -24280,7 +24253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="257"/>
       <c r="B4" s="56" t="s">
         <v>568</v>
@@ -24322,7 +24295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A5" s="257"/>
       <c r="B5" s="56" t="s">
         <v>569</v>
@@ -24367,7 +24340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="257"/>
       <c r="B6" s="56" t="s">
         <v>570</v>
@@ -24412,7 +24385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="257"/>
       <c r="B7" s="56" t="s">
         <v>571</v>
@@ -24457,7 +24430,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="257"/>
       <c r="B8" s="56" t="s">
         <v>576</v>
@@ -24500,7 +24473,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="257"/>
       <c r="B9" s="56" t="s">
         <v>579</v>
@@ -24543,7 +24516,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="258"/>
       <c r="B10" s="63" t="s">
         <v>581</v>
@@ -24586,7 +24559,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="257" t="s">
         <v>419</v>
       </c>
@@ -24631,7 +24604,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A12" s="257"/>
       <c r="B12" s="68" t="s">
         <v>587</v>
@@ -24677,7 +24650,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A13" s="257"/>
       <c r="B13" s="68" t="s">
         <v>590</v>
@@ -24720,7 +24693,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A14" s="257"/>
       <c r="B14" s="68" t="s">
         <v>593</v>
@@ -24767,7 +24740,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A15" s="257"/>
       <c r="B15" s="68" t="s">
         <v>596</v>
@@ -24814,7 +24787,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.15">
       <c r="A16" s="257"/>
       <c r="B16" s="68" t="s">
         <v>598</v>
@@ -24857,7 +24830,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A17" s="257"/>
       <c r="B17" s="68" t="s">
         <v>600</v>
@@ -24900,7 +24873,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A18" s="258"/>
       <c r="B18" s="72" t="s">
         <v>602</v>
@@ -24948,7 +24921,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A19" s="265" t="s">
         <v>606</v>
       </c>
@@ -24995,7 +24968,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="266"/>
       <c r="B20" s="74" t="s">
         <v>609</v>
@@ -25040,7 +25013,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A21" s="266"/>
       <c r="B21" s="74" t="s">
         <v>614</v>
@@ -25088,7 +25061,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A22" s="266"/>
       <c r="B22" s="74" t="s">
         <v>616</v>
@@ -25132,7 +25105,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A23" s="266"/>
       <c r="B23" s="74" t="s">
         <v>619</v>
@@ -25176,7 +25149,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A24" s="266"/>
       <c r="B24" s="74" t="s">
         <v>621</v>
@@ -25220,7 +25193,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A25" s="266"/>
       <c r="B25" s="74" t="s">
         <v>625</v>
@@ -25264,7 +25237,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A26" s="267"/>
       <c r="B26" s="79" t="s">
         <v>627</v>
@@ -25310,7 +25283,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A27" s="262" t="s">
         <v>629</v>
       </c>
@@ -25359,7 +25332,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A28" s="257"/>
       <c r="B28" s="68" t="s">
         <v>632</v>
@@ -25403,7 +25376,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A29" s="257"/>
       <c r="B29" s="68" t="s">
         <v>635</v>
@@ -25447,7 +25420,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A30" s="257"/>
       <c r="B30" s="68" t="s">
         <v>637</v>
@@ -25493,7 +25466,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A31" s="257"/>
       <c r="B31" s="68" t="s">
         <v>639</v>
@@ -25536,7 +25509,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A32" s="257"/>
       <c r="B32" s="68" t="s">
         <v>642</v>
@@ -25581,7 +25554,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A33" s="257"/>
       <c r="B33" s="68" t="s">
         <v>645</v>
@@ -25626,7 +25599,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A34" s="258"/>
       <c r="B34" s="72" t="s">
         <v>649</v>
@@ -25669,7 +25642,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A35" s="263" t="s">
         <v>653</v>
       </c>
@@ -25717,7 +25690,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A36" s="268"/>
       <c r="B36" s="56" t="s">
         <v>658</v>
@@ -25762,7 +25735,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A37" s="268"/>
       <c r="B37" s="56" t="s">
         <v>661</v>
@@ -25808,7 +25781,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A38" s="268"/>
       <c r="B38" s="56" t="s">
         <v>664</v>
@@ -25856,7 +25829,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A39" s="268"/>
       <c r="B39" s="56" t="s">
         <v>668</v>
@@ -25901,7 +25874,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A40" s="268"/>
       <c r="B40" s="56" t="s">
         <v>672</v>
@@ -25946,7 +25919,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A41" s="268"/>
       <c r="B41" s="56" t="s">
         <v>675</v>
@@ -25991,7 +25964,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A42" s="269"/>
       <c r="B42" s="63" t="s">
         <v>678</v>
@@ -26036,7 +26009,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="262" t="s">
         <v>681</v>
       </c>
@@ -26089,7 +26062,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="257"/>
       <c r="B44" s="56" t="s">
         <v>685</v>
@@ -26132,7 +26105,7 @@
       </c>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A45" s="257"/>
       <c r="B45" s="56" t="s">
         <v>689</v>
@@ -26186,7 +26159,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A46" s="257"/>
       <c r="B46" s="56" t="s">
         <v>693</v>
@@ -26234,7 +26207,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A47" s="257"/>
       <c r="B47" s="56" t="s">
         <v>696</v>
@@ -26284,7 +26257,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A48" s="257"/>
       <c r="B48" s="56" t="s">
         <v>699</v>
@@ -26333,7 +26306,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A49" s="257"/>
       <c r="B49" s="56" t="s">
         <v>702</v>
@@ -26384,7 +26357,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A50" s="258"/>
       <c r="B50" s="63" t="s">
         <v>705</v>
@@ -26429,7 +26402,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A51" s="263" t="s">
         <v>708</v>
       </c>
@@ -26474,7 +26447,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A52" s="257"/>
       <c r="B52" s="68" t="s">
         <v>712</v>
@@ -26526,7 +26499,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="257"/>
       <c r="B53" s="68" t="s">
         <v>715</v>
@@ -26571,7 +26544,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A54" s="257"/>
       <c r="B54" s="68" t="s">
         <v>718</v>
@@ -26619,7 +26592,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A55" s="257"/>
       <c r="B55" s="68" t="s">
         <v>720</v>
@@ -26664,7 +26637,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A56" s="257"/>
       <c r="B56" s="68" t="s">
         <v>722</v>
@@ -26703,7 +26676,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A57" s="257"/>
       <c r="B57" s="68" t="s">
         <v>724</v>
@@ -26742,7 +26715,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A58" s="258"/>
       <c r="B58" s="72" t="s">
         <v>726</v>
@@ -26784,7 +26757,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A59" s="263" t="s">
         <v>728</v>
       </c>
@@ -26826,7 +26799,7 @@
       </c>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A60" s="264"/>
       <c r="B60" s="87" t="s">
         <v>731</v>
@@ -26866,7 +26839,7 @@
       </c>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A61" s="264"/>
       <c r="B61" s="87" t="s">
         <v>733</v>
@@ -26907,7 +26880,7 @@
       </c>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="264"/>
       <c r="B62" s="87" t="s">
         <v>735</v>
@@ -26952,7 +26925,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="264"/>
       <c r="N63" s="44" t="s">
         <v>415</v>
@@ -26964,13 +26937,13 @@
         <v>738</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="264"/>
       <c r="N64" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="264"/>
       <c r="O65" s="1" t="s">
         <v>549</v>
@@ -26979,7 +26952,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="264"/>
       <c r="O66" s="1" t="s">
         <v>551</v>
@@ -26988,7 +26961,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O67" s="1" t="s">
         <v>553</v>
       </c>
@@ -26996,7 +26969,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G68" s="23" t="s">
         <v>552</v>
       </c>
@@ -27007,7 +26980,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G69" s="23" t="s">
         <v>554</v>
       </c>
@@ -27018,7 +26991,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O70" s="1" t="s">
         <v>559</v>
       </c>
@@ -27026,7 +26999,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O71" s="1" t="s">
         <v>561</v>
       </c>
@@ -27034,17 +27007,17 @@
         <v>745</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P72" s="7" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P73" s="7" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P74" s="7" t="s">
         <v>748</v>
       </c>
@@ -27067,28 +27040,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="24.5" customWidth="1"/>
-    <col min="12" max="12" width="31.625" customWidth="1"/>
-    <col min="13" max="14" width="20.625" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>750</v>
       </c>
@@ -27105,7 +27078,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5">
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>755</v>
       </c>
@@ -27138,7 +27111,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5">
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J4" s="4" t="s">
         <v>376</v>
       </c>
@@ -27156,7 +27129,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5">
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J5" s="8" t="s">
         <v>435</v>
       </c>
@@ -27174,7 +27147,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5">
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="J6" s="8" t="s">
         <v>422</v>
       </c>
@@ -27190,7 +27163,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="J7" s="8" t="s">
         <v>442</v>
       </c>
@@ -27206,7 +27179,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5">
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J8" s="10" t="s">
         <v>369</v>
       </c>
@@ -27224,7 +27197,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5">
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J9" s="10" t="s">
         <v>448</v>
       </c>
@@ -27240,7 +27213,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5">
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J10" s="10" t="s">
         <v>447</v>
       </c>
@@ -27256,7 +27229,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5">
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J11" s="10" t="s">
         <v>454</v>
       </c>
@@ -27272,7 +27245,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5">
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J12" s="10" t="s">
         <v>453</v>
       </c>
@@ -27288,7 +27261,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5">
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>761</v>
       </c>
@@ -27307,7 +27280,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5">
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>762</v>
       </c>
@@ -27343,7 +27316,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5">
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J15" s="16" t="s">
         <v>467</v>
       </c>
@@ -27361,7 +27334,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5">
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J16" s="17" t="s">
         <v>332</v>
       </c>
@@ -27379,7 +27352,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="10:15" ht="16.5">
+    <row r="17" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J17" s="10" t="s">
         <v>472</v>
       </c>
@@ -27397,7 +27370,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="10:15" ht="16.5">
+    <row r="18" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J18" s="17" t="s">
         <v>263</v>
       </c>
@@ -27413,7 +27386,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="10:15" ht="16.5">
+    <row r="19" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J19" s="10" t="s">
         <v>477</v>
       </c>
@@ -27429,7 +27402,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="10:15" ht="16.5">
+    <row r="20" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J20" s="17" t="s">
         <v>194</v>
       </c>
@@ -27445,7 +27418,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="10:15" ht="16.5">
+    <row r="21" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J21" s="17" t="s">
         <v>480</v>
       </c>
@@ -27461,7 +27434,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="10:15" ht="16.5">
+    <row r="22" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J22" s="17" t="s">
         <v>189</v>
       </c>
@@ -27479,7 +27452,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="10:15" ht="16.5">
+    <row r="23" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J23" s="10" t="s">
         <v>487</v>
       </c>
@@ -27497,7 +27470,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="24" spans="10:15" ht="16.5">
+    <row r="24" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J24" s="25" t="s">
         <v>175</v>
       </c>
@@ -27513,7 +27486,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="10:15" ht="16.5">
+    <row r="25" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J25" s="8" t="s">
         <v>491</v>
       </c>
@@ -27529,7 +27502,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="10:15" ht="16.5">
+    <row r="26" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J26" s="25" t="s">
         <v>348</v>
       </c>
@@ -27545,7 +27518,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="10:15" ht="16.5">
+    <row r="27" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J27" s="17" t="s">
         <v>166</v>
       </c>
@@ -27561,7 +27534,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="10:15" ht="16.5">
+    <row r="28" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J28" s="27" t="s">
         <v>420</v>
       </c>
@@ -27579,7 +27552,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="29" spans="10:15" ht="16.5">
+    <row r="29" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J29" s="28" t="s">
         <v>303</v>
       </c>
@@ -27597,7 +27570,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="10:15" ht="16.5">
+    <row r="30" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J30" s="30" t="s">
         <v>307</v>
       </c>
@@ -27613,7 +27586,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="10:15" ht="16.5">
+    <row r="31" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J31" s="27" t="s">
         <v>452</v>
       </c>
@@ -27631,7 +27604,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="10:15" ht="16.5">
+    <row r="32" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J32" s="28" t="s">
         <v>429</v>
       </c>
@@ -27649,7 +27622,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="33" spans="10:15" ht="16.5">
+    <row r="33" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J33" s="27" t="s">
         <v>322</v>
       </c>
@@ -27667,7 +27640,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="34" spans="10:15" ht="16.5">
+    <row r="34" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J34" s="28" t="s">
         <v>434</v>
       </c>
@@ -27685,7 +27658,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="35" spans="10:15" ht="16.5">
+    <row r="35" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J35" s="28" t="s">
         <v>441</v>
       </c>
@@ -27703,7 +27676,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="10:15" ht="16.5">
+    <row r="36" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J36" s="30" t="s">
         <v>426</v>
       </c>
@@ -27721,7 +27694,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="37" spans="10:15" ht="16.5">
+    <row r="37" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J37" s="30" t="s">
         <v>497</v>
       </c>
@@ -27739,7 +27712,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="10:15" ht="16.5">
+    <row r="38" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J38" s="30" t="s">
         <v>486</v>
       </c>
@@ -27757,7 +27730,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="39" spans="10:15" ht="16.5">
+    <row r="39" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J39" s="30" t="s">
         <v>458</v>
       </c>
@@ -27775,7 +27748,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="40" spans="10:15" ht="16.5">
+    <row r="40" spans="10:15" ht="18" x14ac:dyDescent="0.15">
       <c r="J40" s="30" t="s">
         <v>515</v>
       </c>
@@ -27789,7 +27762,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="10:15" ht="16.5">
+    <row r="41" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J41" s="30" t="s">
         <v>493</v>
       </c>
@@ -27807,7 +27780,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="10:15" ht="16.5">
+    <row r="42" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J42" s="28" t="s">
         <v>461</v>
       </c>
@@ -27825,7 +27798,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="10:15" ht="16.5">
+    <row r="43" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J43" s="27" t="s">
         <v>270</v>
       </c>
@@ -27843,7 +27816,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="10:15" ht="16.5">
+    <row r="44" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J44" s="30" t="s">
         <v>527</v>
       </c>
@@ -27861,7 +27834,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="45" spans="10:15" ht="16.5">
+    <row r="45" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J45" s="17" t="s">
         <v>474</v>
       </c>
@@ -27879,7 +27852,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="46" spans="10:15" ht="16.5">
+    <row r="46" spans="10:15" ht="18" x14ac:dyDescent="0.15">
       <c r="J46" s="17" t="s">
         <v>181</v>
       </c>
@@ -27897,7 +27870,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="10:15" ht="16.5">
+    <row r="47" spans="10:15" ht="18" x14ac:dyDescent="0.15">
       <c r="J47" s="25" t="s">
         <v>532</v>
       </c>
@@ -27913,7 +27886,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="10:15" ht="16.5">
+    <row r="48" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J48" s="25" t="s">
         <v>503</v>
       </c>
@@ -27931,7 +27904,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="49" spans="10:15" ht="16.5">
+    <row r="49" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J49" s="25" t="s">
         <v>534</v>
       </c>
@@ -27949,7 +27922,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="50" spans="10:15" ht="16.5">
+    <row r="50" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J50" s="25" t="s">
         <v>510</v>
       </c>
@@ -27967,7 +27940,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="51" spans="10:15" ht="16.5">
+    <row r="51" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J51" s="40" t="s">
         <v>490</v>
       </c>
@@ -27985,7 +27958,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="52" spans="10:15" ht="16.5">
+    <row r="52" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J52" s="8" t="s">
         <v>438</v>
       </c>
@@ -27999,7 +27972,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="10:15" ht="16.5">
+    <row r="53" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J53" s="8" t="s">
         <v>462</v>
       </c>
@@ -28013,7 +27986,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="10:15" ht="16.5">
+    <row r="54" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J54" s="10" t="s">
         <v>482</v>
       </c>
@@ -28029,7 +28002,7 @@
       <c r="N54" s="7"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="10:15" ht="16.5">
+    <row r="55" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J55" s="8" t="s">
         <v>326</v>
       </c>
@@ -28043,7 +28016,7 @@
       <c r="N55" s="7"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="10:15" ht="16.5">
+    <row r="56" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J56" s="8" t="s">
         <v>358</v>
       </c>
@@ -28057,7 +28030,7 @@
       <c r="N56" s="7"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="10:15" ht="16.5">
+    <row r="57" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J57" s="8" t="s">
         <v>530</v>
       </c>
@@ -28071,7 +28044,7 @@
       <c r="N57" s="7"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="10:15" ht="16.5">
+    <row r="58" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J58" s="8" t="s">
         <v>540</v>
       </c>
@@ -28087,7 +28060,7 @@
       <c r="N58" s="7"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="10:15" ht="16.5">
+    <row r="59" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J59" s="44" t="s">
         <v>415</v>
       </c>
@@ -28101,7 +28074,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="10:15" ht="16.5">
+    <row r="60" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J60" s="1" t="s">
         <v>548</v>
       </c>
@@ -28111,7 +28084,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="10:15" ht="16.5">
+    <row r="61" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
         <v>549</v>
@@ -28123,7 +28096,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="10:15" ht="16.5">
+    <row r="62" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
         <v>551</v>
@@ -28135,7 +28108,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="10:15" ht="16.5">
+    <row r="63" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
         <v>553</v>
@@ -28147,7 +28120,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="10:15" ht="16.5">
+    <row r="64" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
         <v>555</v>
@@ -28159,7 +28132,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="10:15" ht="16.5">
+    <row r="65" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
         <v>557</v>
@@ -28171,7 +28144,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="10:15" ht="16.5">
+    <row r="66" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
         <v>559</v>
@@ -28183,7 +28156,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="10:15" ht="16.5">
+    <row r="67" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
         <v>561</v>
@@ -28195,7 +28168,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="10:15" ht="16.5">
+    <row r="68" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="7" t="s">
@@ -28205,7 +28178,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="10:15" ht="16.5">
+    <row r="69" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="7" t="s">
@@ -28215,7 +28188,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="10:15" ht="16.5">
+    <row r="70" spans="10:15" ht="17" x14ac:dyDescent="0.15">
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="7" t="s">
@@ -28232,29 +28205,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F183"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1"/>
-    <col min="4" max="4" width="14.375" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="233" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="233" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="147"/>
       <c r="F1" s="235"/>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="235" t="s">
         <v>816</v>
       </c>
@@ -28267,7 +28240,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>369</v>
       </c>
@@ -28285,7 +28258,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
         <v>422</v>
       </c>
@@ -28303,7 +28276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
         <v>376</v>
       </c>
@@ -28321,7 +28294,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
         <v>431</v>
       </c>
@@ -28339,7 +28312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="60" t="s">
         <v>332</v>
       </c>
@@ -28357,7 +28330,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="60" t="s">
         <v>263</v>
       </c>
@@ -28375,7 +28348,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="60" t="s">
         <v>194</v>
       </c>
@@ -28393,7 +28366,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="60" t="s">
         <v>189</v>
       </c>
@@ -28411,7 +28384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="60" t="s">
         <v>447</v>
       </c>
@@ -28429,7 +28402,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="60" t="s">
         <v>303</v>
       </c>
@@ -28447,7 +28420,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="107" t="s">
         <v>420</v>
       </c>
@@ -28465,7 +28438,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="83" t="s">
         <v>166</v>
       </c>
@@ -28483,7 +28456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="83" t="s">
         <v>322</v>
       </c>
@@ -28501,9 +28474,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="107" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="C16" s="236" t="s">
         <v>815</v>
@@ -28514,14 +28487,14 @@
       <c r="E16" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F16" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>√</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C17" s="236" t="s">
         <v>815</v>
@@ -28537,9 +28510,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="107" t="s">
-        <v>429</v>
+        <v>857</v>
       </c>
       <c r="C18" s="236" t="s">
         <v>815</v>
@@ -28555,9 +28528,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="59" t="s">
-        <v>434</v>
+        <v>851</v>
       </c>
       <c r="C19" s="236" t="s">
         <v>815</v>
@@ -28573,9 +28546,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="59" t="s">
-        <v>441</v>
+        <v>849</v>
       </c>
       <c r="C20" s="236" t="s">
         <v>815</v>
@@ -28591,7 +28564,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="57" t="s">
         <v>503</v>
       </c>
@@ -28609,9 +28582,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="59" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C22" s="236" t="s">
         <v>815</v>
@@ -28627,9 +28600,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="59" t="s">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="C23" s="236" t="s">
         <v>815</v>
@@ -28645,9 +28618,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
-        <v>493</v>
+        <v>348</v>
       </c>
       <c r="C24" s="236" t="s">
         <v>815</v>
@@ -28658,14 +28631,14 @@
       <c r="E24" s="108" t="s">
         <v>773</v>
       </c>
-      <c r="F24" s="1" t="str">
+      <c r="F24" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>√</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="C25" s="236" t="s">
         <v>815</v>
@@ -28681,9 +28654,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="59" t="s">
-        <v>461</v>
+        <v>852</v>
       </c>
       <c r="C26" s="236" t="s">
         <v>815</v>
@@ -28699,9 +28672,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>270</v>
+        <v>859</v>
       </c>
       <c r="C27" s="236" t="s">
         <v>815</v>
@@ -28717,9 +28690,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="C28" s="236" t="s">
         <v>815</v>
@@ -28735,9 +28708,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>181</v>
+        <v>833</v>
       </c>
       <c r="C29" s="236" t="s">
         <v>815</v>
@@ -28753,9 +28726,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="55" t="s">
-        <v>307</v>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="59" t="s">
+        <v>831</v>
       </c>
       <c r="C30" s="236" t="s">
         <v>815</v>
@@ -28771,9 +28744,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="112" t="s">
-        <v>486</v>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="55" t="s">
+        <v>307</v>
       </c>
       <c r="C31" s="236" t="s">
         <v>815</v>
@@ -28789,9 +28762,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="83" t="s">
-        <v>474</v>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="55" t="s">
+        <v>461</v>
       </c>
       <c r="C32" s="236" t="s">
         <v>815</v>
@@ -28807,9 +28780,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="150" t="s">
-        <v>490</v>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="83" t="s">
+        <v>474</v>
       </c>
       <c r="C33" s="236" t="s">
         <v>815</v>
@@ -28825,9 +28798,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="83" t="s">
-        <v>497</v>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="150" t="s">
+        <v>490</v>
       </c>
       <c r="C34" s="236" t="s">
         <v>815</v>
@@ -28843,7 +28816,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="55" t="s">
         <v>510</v>
       </c>
@@ -28861,7 +28834,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="230" t="s">
         <v>415</v>
       </c>
@@ -28879,7 +28852,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="230" t="s">
         <v>438</v>
       </c>
@@ -28897,7 +28870,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="230" t="s">
         <v>462</v>
       </c>
@@ -28915,9 +28888,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="70" t="s">
-        <v>482</v>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="59" t="s">
+        <v>515</v>
       </c>
       <c r="C39" s="236" t="s">
         <v>815</v>
@@ -28928,14 +28901,14 @@
       <c r="E39" s="108" t="s">
         <v>794</v>
       </c>
-      <c r="F39" s="1" t="e">
+      <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="70" t="s">
-        <v>326</v>
+        <v>482</v>
       </c>
       <c r="C40" s="236" t="s">
         <v>815</v>
@@ -28951,9 +28924,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="231" t="s">
-        <v>358</v>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="70" t="s">
+        <v>326</v>
       </c>
       <c r="C41" s="236" t="s">
         <v>815</v>
@@ -28969,9 +28942,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="107" t="s">
-        <v>472</v>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="231" t="s">
+        <v>358</v>
       </c>
       <c r="C42" s="236" t="s">
         <v>815</v>
@@ -28987,7 +28960,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="231" t="s">
         <v>530</v>
       </c>
@@ -29005,7 +28978,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="59" t="s">
         <v>480</v>
       </c>
@@ -29023,7 +28996,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="61" t="s">
         <v>527</v>
       </c>
@@ -29041,7 +29014,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="59" t="s">
         <v>487</v>
       </c>
@@ -29059,9 +29032,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="57" t="s">
-        <v>491</v>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="230" t="s">
+        <v>540</v>
       </c>
       <c r="C47" s="236" t="s">
         <v>815</v>
@@ -29077,9 +29050,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="230" t="s">
-        <v>540</v>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="107" t="s">
+        <v>448</v>
       </c>
       <c r="C48" s="236" t="s">
         <v>815</v>
@@ -29095,9 +29068,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="59" t="s">
-        <v>448</v>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="107" t="s">
+        <v>459</v>
       </c>
       <c r="C49" s="236" t="s">
         <v>815</v>
@@ -29113,13 +29086,9 @@
         <v>√</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="59" t="s">
-        <v>459</v>
-      </c>
-      <c r="C50" s="236" t="s">
-        <v>815</v>
-      </c>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="59"/>
+      <c r="C50" s="236"/>
       <c r="D50" s="108" t="s">
         <v>490</v>
       </c>
@@ -29131,7 +29100,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="147"/>
       <c r="D51" s="13" t="s">
         <v>438</v>
@@ -29144,7 +29113,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="147"/>
       <c r="D52" s="13" t="s">
         <v>462</v>
@@ -29157,7 +29126,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="147"/>
       <c r="D53" s="13" t="s">
         <v>482</v>
@@ -29170,7 +29139,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="147"/>
       <c r="D54" s="13" t="s">
         <v>326</v>
@@ -29183,7 +29152,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="147"/>
       <c r="D55" s="13" t="s">
         <v>358</v>
@@ -29196,7 +29165,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="147"/>
       <c r="D56" s="13" t="s">
         <v>530</v>
@@ -29209,7 +29178,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="147"/>
       <c r="D57" s="13" t="s">
         <v>540</v>
@@ -29222,7 +29191,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="147"/>
       <c r="D58" s="13" t="s">
         <v>415</v>
@@ -29235,379 +29204,379 @@
         <v>√</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="147"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="147"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="147"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" s="147"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="147"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="147"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="147"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="147"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="147"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="147"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="147"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" s="147"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="147"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="147"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="147"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="147"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="147"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="147"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="147"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="147"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="147"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="147"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="147"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="147"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="147"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" s="147"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" s="147"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" s="147"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" s="147"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" s="147"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" s="147"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" s="147"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" s="147"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" s="147"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" s="147"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" s="147"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" s="147"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" s="147"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" s="147"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" s="147"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" s="147"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" s="147"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B101" s="147"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B102" s="147"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B103" s="147"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B104" s="147"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B105" s="147"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B106" s="147"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B107" s="147"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B108" s="147"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B109" s="147"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B110" s="147"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B111" s="147"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" s="147"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" s="147"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B115" s="147"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B116" s="147"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B117" s="147"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" s="147"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B119" s="147"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B120" s="147"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" s="147"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" s="147"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B123" s="147"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B124" s="147"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B125" s="147"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B126" s="147"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B127" s="147"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B128" s="147"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B129" s="147"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B130" s="147"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B131" s="147"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B132" s="147"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B133" s="147"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B134" s="147"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B135" s="147"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B136" s="147"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B137" s="147"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" s="147"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B139" s="147"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B140" s="147"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B141" s="147"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B142" s="147"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B143" s="147"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B144" s="147"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B145" s="147"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" s="147"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B147" s="147"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B148" s="147"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B149" s="147"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B150" s="147"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B151" s="147"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B152" s="147"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B153" s="147"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B154" s="147"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B155" s="147"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B156" s="147"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B157" s="147"/>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B158" s="147"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B159" s="147"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B160" s="147"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B161" s="147"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B162" s="147"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B163" s="147"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B164" s="147"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B165" s="147"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B166" s="147"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B167" s="147"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B168" s="147"/>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B169" s="147"/>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B170" s="147"/>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B171" s="147"/>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B172" s="147"/>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B173" s="147"/>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B174" s="147"/>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B175" s="147"/>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B176" s="147"/>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B177" s="147"/>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B178" s="147"/>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B179" s="147"/>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B180" s="147"/>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B181" s="147"/>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B182" s="147"/>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B183" s="147"/>
     </row>
   </sheetData>

--- a/gd/MT/ms布怪.xlsx
+++ b/gd/MT/ms布怪.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/MT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/MT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="产出投放规划" sheetId="1" r:id="rId1"/>
@@ -4869,19 +4869,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>蓝H（龙宫童子）（缺英文名）</t>
-    <rPh sb="9" eb="10">
-      <t>que</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ying'wen'min</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ming</t>
-    </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>是否被副本引用</t>
     <rPh sb="0" eb="1">
       <t>shi'fou</t>
@@ -5108,13 +5095,16 @@
     <t>★11</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
+  <si>
+    <t>蓝H（龙宫童子）（Ryuku Doji）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -6209,13 +6199,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6224,19 +6214,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -6588,7 +6578,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 2 2 2" xfId="4"/>
@@ -18200,7 +18190,7 @@
       <c r="AB12" s="162"/>
       <c r="AG12" s="88"/>
     </row>
-    <row r="13" spans="1:33" s="108" customFormat="1" ht="85" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" s="108" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A13" s="150">
         <v>12</v>
       </c>
@@ -18645,7 +18635,7 @@
       </c>
       <c r="Z20" s="162"/>
     </row>
-    <row r="21" spans="1:33" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" ht="51" x14ac:dyDescent="0.15">
       <c r="A21" s="147">
         <v>20</v>
       </c>
@@ -21312,8 +21302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -21599,7 +21589,7 @@
       </c>
       <c r="F8" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>蓝H（龙宫童子）（缺英文名）</v>
+        <v>蓝H（龙宫童子）（Ryuku Doji）</v>
       </c>
       <c r="G8" s="59" t="s">
         <v>194</v>
@@ -21795,7 +21785,7 @@
         <v>369</v>
       </c>
       <c r="O12" s="119" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="P12" s="115"/>
       <c r="Q12" s="115"/>
@@ -21837,7 +21827,7 @@
         <v>448</v>
       </c>
       <c r="O13" s="119" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="P13" s="115"/>
       <c r="Q13" s="115"/>
@@ -21999,7 +21989,7 @@
       </c>
       <c r="F17" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>蓝H（龙宫童子）（缺英文名）</v>
+        <v>蓝H（龙宫童子）（Ryuku Doji）</v>
       </c>
       <c r="G17" s="71" t="s">
         <v>458</v>
@@ -22015,7 +22005,7 @@
         <v>459</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P17" s="115"/>
       <c r="Q17" s="115"/>
@@ -22060,7 +22050,7 @@
         <v>431</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P18" s="228" t="s">
         <v>807</v>
@@ -22106,7 +22096,7 @@
         <v>467</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P19" s="228" t="s">
         <v>808</v>
@@ -22130,7 +22120,7 @@
         <v>绿物D（花魄 Flower Pixie）</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F20" s="244" t="str">
         <f t="shared" si="4"/>
@@ -22150,7 +22140,7 @@
         <v>332</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P20" s="115"/>
       <c r="Q20" s="115"/>
@@ -22195,7 +22185,7 @@
         <v>472</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P21" s="115"/>
       <c r="Q21" s="115"/>
@@ -22224,7 +22214,7 @@
         <v>红速法D（小丑 Joker）</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H22" s="244" t="str">
         <f t="shared" si="5"/>
@@ -22237,7 +22227,7 @@
         <v>263</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="P22" s="228" t="s">
         <v>809</v>
@@ -22322,7 +22312,7 @@
       <c r="L24" s="108"/>
       <c r="M24" s="108"/>
       <c r="N24" s="121" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O24" s="122" t="s">
         <v>785</v>
@@ -22390,7 +22380,7 @@
       </c>
       <c r="D26" s="244" t="str">
         <f t="shared" si="3"/>
-        <v>蓝H（龙宫童子）（缺英文名）</v>
+        <v>蓝H（龙宫童子）（Ryuku Doji）</v>
       </c>
       <c r="E26" s="85" t="s">
         <v>181</v>
@@ -22413,7 +22403,7 @@
         <v>189</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P26" s="229" t="s">
         <v>811</v>
@@ -22432,14 +22422,14 @@
         <v>485</v>
       </c>
       <c r="C27" s="104" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D27" s="243" t="str">
         <f t="shared" si="3"/>
         <v>红速法D（小丑 Joker）</v>
       </c>
       <c r="E27" s="105" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F27" s="243" t="str">
         <f t="shared" si="4"/>
@@ -22460,7 +22450,7 @@
         <v>487</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P27" s="229" t="s">
         <v>811</v>
@@ -22477,7 +22467,7 @@
         <v>488</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D28" s="243" t="str">
         <f t="shared" si="3"/>
@@ -22501,7 +22491,7 @@
       <c r="L28" s="108"/>
       <c r="M28" s="108"/>
       <c r="N28" s="123" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>773</v>
@@ -22575,7 +22565,7 @@
         <v>绿提升S（走音草 Melody Bulb）</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H30" s="243" t="str">
         <f t="shared" si="5"/>
@@ -22606,21 +22596,21 @@
         <v>496</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D31" s="243" t="str">
         <f t="shared" si="3"/>
         <v>红物D (道成寺钟 Maiden Dojoji)</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F31" s="243" t="str">
         <f t="shared" si="4"/>
         <v>绿物D（潘神 Pans）</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H31" s="243" t="str">
         <f t="shared" si="5"/>
@@ -22633,7 +22623,7 @@
         <v>166</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P31" s="115"/>
       <c r="Q31" s="115"/>
@@ -22648,7 +22638,7 @@
         <v>498</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D32" s="243" t="str">
         <f t="shared" si="3"/>
@@ -22692,21 +22682,21 @@
         <v>500</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D33" s="243" t="str">
         <f t="shared" si="3"/>
         <v>红T (红牛弥诺陶洛斯 Minotaur)</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F33" s="243" t="str">
         <f t="shared" si="4"/>
         <v>白主H辅驱S（哈皮 Harpy）</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H33" s="243" t="str">
         <f t="shared" si="5"/>
@@ -22716,7 +22706,7 @@
       <c r="L33" s="108"/>
       <c r="M33" s="108"/>
       <c r="N33" s="125" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O33" s="13" t="s">
         <v>777</v>
@@ -22889,7 +22879,7 @@
         <v>322</v>
       </c>
       <c r="O37" s="227" t="s">
-        <v>818</v>
+        <v>872</v>
       </c>
       <c r="P37" s="115"/>
       <c r="Q37" s="115"/>
@@ -22932,7 +22922,7 @@
         <v>434</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="P38" s="115"/>
       <c r="Q38" s="115"/>
@@ -23109,7 +23099,7 @@
         <v>293</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D43" s="245" t="str">
         <f t="shared" si="9"/>
@@ -23123,7 +23113,7 @@
         <v>绿H (苗娃曼陀罗 Mandrake)</v>
       </c>
       <c r="G43" s="104" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H43" s="245" t="str">
         <f>VLOOKUP(G43,$N$8:$O$63,2,0)</f>
@@ -23166,7 +23156,7 @@
         <v>蓝控S（水鬼 Davy Jones）</v>
       </c>
       <c r="G44" s="107" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H44" s="245" t="str">
         <f>VLOOKUP(G44,$N$8:$O$63,2,0)</f>
@@ -23178,7 +23168,7 @@
         <v>514</v>
       </c>
       <c r="N44" s="126" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O44" s="226" t="s">
         <v>794</v>
@@ -23194,14 +23184,14 @@
         <v>301</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D45" s="245" t="str">
         <f t="shared" si="9"/>
         <v>绿物D（潘神 Pans）</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F45" s="245" t="str">
         <f t="shared" si="10"/>
@@ -23249,14 +23239,14 @@
         <v>蓝法D（蛙鬼 Phase Frog）</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F46" s="245" t="str">
         <f t="shared" si="10"/>
         <v>蓝物D（温迪戈 Wendigo）</v>
       </c>
       <c r="G46" s="61" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H46" s="245" t="str">
         <f t="shared" si="11"/>
@@ -23268,7 +23258,7 @@
       </c>
       <c r="M46" s="108"/>
       <c r="N46" s="125" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O46" s="108" t="s">
         <v>804</v>
@@ -23284,7 +23274,7 @@
         <v>312</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D47" s="245" t="str">
         <f t="shared" si="9"/>
@@ -23298,7 +23288,7 @@
         <v>绿物D（潘神 Pans）</v>
       </c>
       <c r="G47" s="59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H47" s="245" t="str">
         <f t="shared" si="11"/>
@@ -23333,11 +23323,11 @@
         <v>316</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D48" s="245" t="str">
         <f t="shared" si="9"/>
-        <v>蓝H（龙宫童子）（缺英文名）</v>
+        <v>蓝H（龙宫童子）（Ryuku Doji）</v>
       </c>
       <c r="E48" s="55" t="s">
         <v>270</v>
@@ -23347,7 +23337,7 @@
         <v>蓝法T（阿穆特 Ammut）</v>
       </c>
       <c r="G48" s="107" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H48" s="245" t="str">
         <f t="shared" si="11"/>
@@ -23389,7 +23379,7 @@
         <v>白主H辅驱S（哈皮 Harpy）</v>
       </c>
       <c r="G49" s="107" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H49" s="245" t="str">
         <f t="shared" si="11"/>
@@ -23419,14 +23409,14 @@
         <v>324</v>
       </c>
       <c r="C50" s="73" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D50" s="245" t="str">
         <f t="shared" si="9"/>
         <v>绿物T（蜥蜴人 Lizardman）</v>
       </c>
       <c r="E50" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F50" s="245" t="str">
         <f t="shared" si="10"/>
@@ -23444,7 +23434,7 @@
         <v>181</v>
       </c>
       <c r="O50" s="108" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="P50" s="115"/>
       <c r="Q50" s="115"/>
@@ -23515,7 +23505,7 @@
       </c>
       <c r="H52" s="246" t="str">
         <f t="shared" si="11"/>
-        <v>蓝H（龙宫童子）（缺英文名）</v>
+        <v>蓝H（龙宫童子）（Ryuku Doji）</v>
       </c>
       <c r="M52" s="108"/>
       <c r="N52" s="123" t="s">
@@ -23603,7 +23593,7 @@
         <v>510</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.15">
@@ -23612,14 +23602,14 @@
         <v>346</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D55" s="246" t="str">
         <f t="shared" si="9"/>
         <v>蓝物D（温迪戈 Wendigo）</v>
       </c>
       <c r="E55" s="112" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F55" s="246" t="str">
         <f t="shared" si="10"/>
@@ -23634,7 +23624,7 @@
       </c>
       <c r="M55" s="108"/>
       <c r="N55" s="33" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O55" s="108" t="s">
         <v>803</v>
@@ -23688,14 +23678,14 @@
         <v>蓝法D（蛙鬼 Phase Frog）</v>
       </c>
       <c r="E57" s="112" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F57" s="246" t="str">
         <f t="shared" si="10"/>
         <v>绿H (苗娃曼陀罗 Mandrake)</v>
       </c>
       <c r="G57" s="57" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H57" s="246" t="str">
         <f t="shared" si="11"/>
@@ -23765,7 +23755,7 @@
         <v>黑法D (皮影 Shadow Puppet)</v>
       </c>
       <c r="G59" s="119" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H59" s="112" t="str">
         <f t="shared" si="11"/>
@@ -23776,7 +23766,7 @@
         <v>326</v>
       </c>
       <c r="O59" s="42" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.15">
@@ -23785,7 +23775,7 @@
         <v>367</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D60" s="112" t="str">
         <f t="shared" si="9"/>
@@ -23810,7 +23800,7 @@
         <v>358</v>
       </c>
       <c r="O60" s="42" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.15">
@@ -23819,7 +23809,7 @@
         <v>371</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D61" s="112" t="str">
         <f t="shared" si="9"/>
@@ -23844,7 +23834,7 @@
         <v>530</v>
       </c>
       <c r="O61" s="42" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.15">
@@ -23853,7 +23843,7 @@
         <v>375</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D62" s="112" t="str">
         <f t="shared" si="9"/>
@@ -23917,22 +23907,22 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="237" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>549</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
@@ -24048,10 +24038,10 @@
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B75" s="1"/>
       <c r="C75" s="88" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D75" s="88" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>559</v>
@@ -24073,7 +24063,7 @@
         <v>0.12348668280871671</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J76" s="23"/>
       <c r="O76" s="1" t="s">
@@ -24113,7 +24103,7 @@
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B79" s="1"/>
       <c r="C79" s="240" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -28208,8 +28198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -28237,7 +28227,7 @@
       </c>
       <c r="E2" s="235"/>
       <c r="F2" s="235" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -28413,7 +28403,7 @@
         <v>459</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -28431,7 +28421,7 @@
         <v>431</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -28449,7 +28439,7 @@
         <v>467</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F14" s="1" t="e">
         <f t="shared" si="0"/>
@@ -28467,7 +28457,7 @@
         <v>332</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -28485,7 +28475,7 @@
         <v>472</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F16" s="1" t="e">
         <f t="shared" si="0"/>
@@ -28512,7 +28502,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="107" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C18" s="236" t="s">
         <v>815</v>
@@ -28530,7 +28520,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C19" s="236" t="s">
         <v>815</v>
@@ -28548,7 +28538,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="59" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C20" s="236" t="s">
         <v>815</v>
@@ -28575,7 +28565,7 @@
         <v>189</v>
       </c>
       <c r="E21" s="119" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -28593,7 +28583,7 @@
         <v>487</v>
       </c>
       <c r="E22" s="119" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -28656,7 +28646,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="59" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C26" s="236" t="s">
         <v>815</v>
@@ -28665,7 +28655,7 @@
         <v>166</v>
       </c>
       <c r="E26" s="119" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -28674,7 +28664,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C27" s="236" t="s">
         <v>815</v>
@@ -28710,7 +28700,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C29" s="236" t="s">
         <v>815</v>
@@ -28728,7 +28718,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C30" s="236" t="s">
         <v>815</v>
@@ -28773,7 +28763,7 @@
         <v>322</v>
       </c>
       <c r="E32" s="227" t="s">
-        <v>818</v>
+        <v>872</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
